--- a/data/RCT wave 3/Raw/Wave 3 - Limited Version_October 4, 2022_08.36.xlsx
+++ b/data/RCT wave 3/Raw/Wave 3 - Limited Version_October 4, 2022_08.36.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/879b7e2da8cffd9d/Female_transport_Riyadh/Surveys and data/RCT wave 3/Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/kms110_duke_edu/Documents/saudi_women_driving/data/RCT wave 3/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A39BF9F-ED18-A446-AAD8-BEA46FE16FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1A39BF9F-ED18-A446-AAD8-BEA46FE16FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DC9F5B-517E-7148-BED5-BBB20C82DF03}"/>
   <bookViews>
-    <workbookView xWindow="-34220" yWindow="-8000" windowWidth="28040" windowHeight="16580"/>
+    <workbookView xWindow="34840" yWindow="-5980" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 3 - Limited Version_Octobe" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wave 3 - Limited Version_Octobe'!$A$1:$AZ$96</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="448">
   <si>
     <t>StartDate</t>
   </si>
@@ -592,9 +595,6 @@
     <t>GenderAttitudesandPoliticalAttitudes/CivicEngagement|Employment|MobilityandNetworks</t>
   </si>
   <si>
-    <t>93.168.174.101</t>
-  </si>
-  <si>
     <t>R_1LLRoFOYKU07S9L</t>
   </si>
   <si>
@@ -664,9 +664,6 @@
     <t>GenderAttitudesandPoliticalAttitudes/CivicEngagement|MobilityandNetworks|Employment</t>
   </si>
   <si>
-    <t>78.95.138.32</t>
-  </si>
-  <si>
     <t>R_2ckkRqM956w9DgV</t>
   </si>
   <si>
@@ -694,9 +691,6 @@
     <t>Employment|GenderAttitudesandPoliticalAttitudes/CivicEngagement|MobilityandNetworks</t>
   </si>
   <si>
-    <t>51.36.219.158</t>
-  </si>
-  <si>
     <t>R_1kZHsIVomEO4nxf</t>
   </si>
   <si>
@@ -718,9 +712,6 @@
     <t>MobilityandNetworks|Employment|GenderAttitudesandPoliticalAttitudes/CivicEngagement</t>
   </si>
   <si>
-    <t>93.168.15.74</t>
-  </si>
-  <si>
     <t>R_1rJT4O8mghieZW6</t>
   </si>
   <si>
@@ -736,9 +727,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_ctPl87UZtGP8j5A&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>46.153.92.31</t>
-  </si>
-  <si>
     <t>R_3Jlzro2KaUEGCmI</t>
   </si>
   <si>
@@ -751,9 +739,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_1TTYlm5oSoh4RbE&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.168.72.80</t>
-  </si>
-  <si>
     <t>R_27Wfl8J17D1LmPK</t>
   </si>
   <si>
@@ -769,9 +754,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_6PXFkw1eArxmO5o&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>46.153.136.224</t>
-  </si>
-  <si>
     <t>R_3ktfwzWhZZbpVSP</t>
   </si>
   <si>
@@ -781,9 +763,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0oynUZ66OirJ7ee&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.52.184.113</t>
-  </si>
-  <si>
     <t>R_1lzeoJMwy79C90E</t>
   </si>
   <si>
@@ -796,9 +775,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_af0uYkkSICsH35I&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>5.156.214.126</t>
-  </si>
-  <si>
     <t>R_qJX21pDklCdc9dT</t>
   </si>
   <si>
@@ -808,9 +784,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_ekOHtAlnY1W9aGa&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>37.217.181.130</t>
-  </si>
-  <si>
     <t>R_3qX4hohCUhYsl6u</t>
   </si>
   <si>
@@ -820,9 +793,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_9GBZdwvb4U5kHpI&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.51.238.176</t>
-  </si>
-  <si>
     <t>R_2Tq07fKNoJcejCf</t>
   </si>
   <si>
@@ -835,9 +805,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0VWFsUZGJ5cLkwu&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>78.95.215.231</t>
-  </si>
-  <si>
     <t>R_1Q58SxDKzp38Gar</t>
   </si>
   <si>
@@ -847,9 +814,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_1Yvo4IYnUmNCjFY&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>95.187.250.139</t>
-  </si>
-  <si>
     <t>R_1hXb137W677ycDl</t>
   </si>
   <si>
@@ -862,9 +826,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_b7vPFjM9ujj33T0&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.39.40.238</t>
-  </si>
-  <si>
     <t>R_2tF3P9tFm92rSrk</t>
   </si>
   <si>
@@ -874,9 +835,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_eONgDiQLRxlBgp0&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.39.229.53</t>
-  </si>
-  <si>
     <t>R_1Nyr7TA9E2G6Yem</t>
   </si>
   <si>
@@ -886,9 +844,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_3P2t1e0U98ZWZVk&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.54.54.36</t>
-  </si>
-  <si>
     <t>R_3M9XwLK8juoMtls</t>
   </si>
   <si>
@@ -901,9 +856,6 @@
     <t>MobilityandNetworks|GenderAttitudesandPoliticalAttitudes/CivicEngagement|Employment</t>
   </si>
   <si>
-    <t>93.168.184.234</t>
-  </si>
-  <si>
     <t>R_1jOEGHxcxNPCtEo</t>
   </si>
   <si>
@@ -913,9 +865,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_e571sQGpBcjFizI&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>176.45.173.132</t>
-  </si>
-  <si>
     <t>R_1mrD8UYJ9rrwsYi</t>
   </si>
   <si>
@@ -925,9 +874,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_77NeGNe7tdMvY46&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>37.106.168.223</t>
-  </si>
-  <si>
     <t>R_22YrBjSJJww88K4</t>
   </si>
   <si>
@@ -937,9 +883,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_aarujCWQKGZoHxs&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>78.95.211.216</t>
-  </si>
-  <si>
     <t>R_2Xn50jhr4Aztjrd</t>
   </si>
   <si>
@@ -949,9 +892,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_8dhXJycmOzyotlc&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>94.99.208.184</t>
-  </si>
-  <si>
     <t>R_V1NSaDVj41Gs4WR</t>
   </si>
   <si>
@@ -961,9 +901,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_24vw8QFpd9OTz26&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.48.175.17</t>
-  </si>
-  <si>
     <t>R_2SCd54WSfgbylma</t>
   </si>
   <si>
@@ -976,9 +913,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0iyZwb9Ddk2vYnI&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>213.166.128.164</t>
-  </si>
-  <si>
     <t>R_2VgctJ4zIypbFv0</t>
   </si>
   <si>
@@ -991,9 +925,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_d4pKtnH4mKnxoiO&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>37.42.242.174</t>
-  </si>
-  <si>
     <t>R_21mnH3WdfO549dI</t>
   </si>
   <si>
@@ -1006,9 +937,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_2aSR34SHqn3Bsz4&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.168.37.52</t>
-  </si>
-  <si>
     <t>R_2wKnQ62MqVUhEox</t>
   </si>
   <si>
@@ -1018,9 +946,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_8uyVht99eQyLElU&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.49.74.62</t>
-  </si>
-  <si>
     <t>R_3RkfGibr2D7ACah</t>
   </si>
   <si>
@@ -1030,9 +955,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_b8l9OGOFjFYAyjQ&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.36.34.139</t>
-  </si>
-  <si>
     <t>R_3M4qQIThfyIyFPq</t>
   </si>
   <si>
@@ -1042,9 +964,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_dmWM1bddH1rIcLk&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.169.147.216</t>
-  </si>
-  <si>
     <t>R_3D7xPwRUXvdkug5</t>
   </si>
   <si>
@@ -1054,9 +973,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_3h2fZMZgEh3Xajs&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>2.89.201.207</t>
-  </si>
-  <si>
     <t>R_2XbOb7QXES8XA1C</t>
   </si>
   <si>
@@ -1066,9 +982,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0HQZGprOhdV4M18&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>77.30.236.32</t>
-  </si>
-  <si>
     <t>R_12ruMw0h9Lbhmkk</t>
   </si>
   <si>
@@ -1078,9 +991,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0SxNT0BsbgeoXlQ&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>95.184.25.180</t>
-  </si>
-  <si>
     <t>R_6JZEhSRvDFEr6LL</t>
   </si>
   <si>
@@ -1099,9 +1009,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_cVj35pmaD4LHGDA&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>95.184.46.19</t>
-  </si>
-  <si>
     <t>R_BKtQe1HvWBtfciJ</t>
   </si>
   <si>
@@ -1111,9 +1018,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_b1aaXBAlFKa5Ic6&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.54.100.16</t>
-  </si>
-  <si>
     <t>R_Wr4yz8TMTqLlbah</t>
   </si>
   <si>
@@ -1123,9 +1027,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_2cr5tAeg0cBMNVQ&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>5.163.235.162</t>
-  </si>
-  <si>
     <t>R_32X7n2GYQvswyTL</t>
   </si>
   <si>
@@ -1144,9 +1045,6 @@
     <t>https://duke.qualtrics.com/jfe3/previewForm/SV_2taVOzuxlLXsatU?Q_CHL=preview&amp;Q_SurveyVersionID=current</t>
   </si>
   <si>
-    <t>51.253.52.80</t>
-  </si>
-  <si>
     <t>R_3kOeLMJQ1eqgJTh</t>
   </si>
   <si>
@@ -1156,9 +1054,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_3WC6QUCgD53jsZE&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.36.196.50</t>
-  </si>
-  <si>
     <t>R_xl0aIetpPvIa7Lz</t>
   </si>
   <si>
@@ -1168,9 +1063,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_3qTemhjsi7ZqfGe&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>46.153.31.174</t>
-  </si>
-  <si>
     <t>R_1g2czEXmwepFLWk</t>
   </si>
   <si>
@@ -1180,9 +1072,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_6Y9w1Hj6wYNPbAW&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>87.101.193.176</t>
-  </si>
-  <si>
     <t>R_1LvxyprR3FrUVwR</t>
   </si>
   <si>
@@ -1192,9 +1081,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_9NVyYmV1df5inWe&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>37.106.56.186</t>
-  </si>
-  <si>
     <t>R_4MWR38v1Hb3rLPz</t>
   </si>
   <si>
@@ -1204,9 +1090,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_9FhYsp0ocvrdAl8&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.51.169.19</t>
-  </si>
-  <si>
     <t>R_2aOwPPcJNnPOgqD</t>
   </si>
   <si>
@@ -1216,9 +1099,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_eDJwDJbagc1nzIa&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>82.197.62.207</t>
-  </si>
-  <si>
     <t>R_2cexYP2SNDew0Jd</t>
   </si>
   <si>
@@ -1228,9 +1108,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0ebPvVh1aWpMFDM&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>77.223.242.26</t>
-  </si>
-  <si>
     <t>R_7235yOqOvlls2Vb</t>
   </si>
   <si>
@@ -1246,9 +1123,6 @@
     <t>R_1ir0QB6eiCF8ruo</t>
   </si>
   <si>
-    <t>51.39.231.175</t>
-  </si>
-  <si>
     <t>R_BPaKREtVKutRAqJ</t>
   </si>
   <si>
@@ -1258,9 +1132,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_2oBrJMiCijnFYVg&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>128.127.223.175</t>
-  </si>
-  <si>
     <t>R_pE2wWPdSuacMS8F</t>
   </si>
   <si>
@@ -1270,9 +1141,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_aUYuvNTJkA1SzWu&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.168.232.19</t>
-  </si>
-  <si>
     <t>R_CjoqsjVNZFcgt8J</t>
   </si>
   <si>
@@ -1282,15 +1150,9 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_9HODwZjR7Iggpim&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>46.152.198.7</t>
-  </si>
-  <si>
     <t>R_b91e2yKAF3PYbp7</t>
   </si>
   <si>
-    <t>176.44.52.198</t>
-  </si>
-  <si>
     <t>R_2yg40x8lkjnp0Lp</t>
   </si>
   <si>
@@ -1300,9 +1162,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_71HBFFpxeTKQOwK&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>78.95.232.68</t>
-  </si>
-  <si>
     <t>R_3HREsJaQytI7eRM</t>
   </si>
   <si>
@@ -1312,9 +1171,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0O4PVLdJ8qTtnAW&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>90.148.130.251</t>
-  </si>
-  <si>
     <t>R_RfQje0UBceEprTX</t>
   </si>
   <si>
@@ -1324,9 +1180,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_0B7hDZ5xYVPN1Bk&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>180.234.40.135</t>
-  </si>
-  <si>
     <t>R_3mfU6cvMM42oG1X</t>
   </si>
   <si>
@@ -1336,9 +1189,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_5vHe8yL0psXIRtI&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.169.47.246</t>
-  </si>
-  <si>
     <t>R_3OjEBgUKaiAZhqA</t>
   </si>
   <si>
@@ -1348,9 +1198,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_eKE1amtIHbRuKvs&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>78.95.125.84</t>
-  </si>
-  <si>
     <t>R_2anOFbryB9ari1E</t>
   </si>
   <si>
@@ -1360,9 +1207,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_56jtZUJ2yjrSxLg&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.168.111.3</t>
-  </si>
-  <si>
     <t>R_DFUjE8EpUJeGlnr</t>
   </si>
   <si>
@@ -1372,9 +1216,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_eSgw7h1OneCnpcy&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>129.208.103.57</t>
-  </si>
-  <si>
     <t>R_30bBrdckIswwmpY</t>
   </si>
   <si>
@@ -1384,9 +1225,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_8DnmnY1YH2xBFoW&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>159.0.238.121</t>
-  </si>
-  <si>
     <t>R_3kGHLlMzjlzvFXa</t>
   </si>
   <si>
@@ -1396,9 +1234,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_b9JCRgx9WvDiALA&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.253.115.95</t>
-  </si>
-  <si>
     <t>R_1OjaToR3fGikhQl</t>
   </si>
   <si>
@@ -1408,9 +1243,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=tC0gi2eyQhgd5sF_2taVOzuxlLXsatU_MLRP_eQdltUAtrhhzhjw&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>176.44.121.10</t>
-  </si>
-  <si>
     <t>R_1mXhZJsh9vB8G3U</t>
   </si>
   <si>
@@ -1420,9 +1252,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_8HT1Y2WuBI67iF8&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>78.95.1.56</t>
-  </si>
-  <si>
     <t>R_Z7OZZFm2Z9mjNjH</t>
   </si>
   <si>
@@ -1432,9 +1261,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_9KYllB6cXE83Kya&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.178.41.210</t>
-  </si>
-  <si>
     <t>R_6xRESAWgmlHuzlL</t>
   </si>
   <si>
@@ -1444,9 +1270,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_cHIUT4VwygwjPim&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>95.184.55.22</t>
-  </si>
-  <si>
     <t>R_272SrUkhu2N3JJU</t>
   </si>
   <si>
@@ -1459,9 +1282,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_cOpwkI3lecxGb78&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>93.169.10.239</t>
-  </si>
-  <si>
     <t>R_3sdhx92jQPDXsLF</t>
   </si>
   <si>
@@ -1471,9 +1291,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_3lnFKLG8H6xRNZQ&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>94.49.27.188</t>
-  </si>
-  <si>
     <t>R_3ikg98DqWbwG8sI</t>
   </si>
   <si>
@@ -1486,9 +1303,6 @@
     <t>R_DTxBfJ3ktfc7ucF</t>
   </si>
   <si>
-    <t>176.44.97.122</t>
-  </si>
-  <si>
     <t>R_3fvNjmR3wt5egVe</t>
   </si>
   <si>
@@ -1498,9 +1312,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=9iooEhXWUteXwUH_2taVOzuxlLXsatU_MLRP_8qwZikebkePyNiC&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.39.34.223</t>
-  </si>
-  <si>
     <t>R_WjHdRpa3i6ndWGl</t>
   </si>
   <si>
@@ -1522,9 +1333,6 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=OqTBDsvaWlRLyNs_2taVOzuxlLXsatU_MLRP_6RaRn8CUTpn3rQG&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>51.39.1.150</t>
-  </si>
-  <si>
     <t>R_1lAW1G2xFidLKnd</t>
   </si>
   <si>
@@ -1561,15 +1369,9 @@
     <t>https://duke.qualtrics.com/jfe/form/SV_2taVOzuxlLXsatU?Q_DL=OqTBDsvaWlRLyNs_2taVOzuxlLXsatU_MLRP_doNjDEPYtTD8iKG&amp;Q_CHL=gl</t>
   </si>
   <si>
-    <t>188.53.170.116</t>
-  </si>
-  <si>
     <t>R_2fj4Gp0jM5iFXrX</t>
   </si>
   <si>
-    <t>93.169.151.135</t>
-  </si>
-  <si>
     <t>R_xaY5LnIVirJSFWh</t>
   </si>
   <si>
@@ -1579,9 +1381,6 @@
     <t>R_WdoeQjLPJJUboVb</t>
   </si>
   <si>
-    <t>77.232.122.142</t>
-  </si>
-  <si>
     <t>R_pEIkNIOlgFVyvK1</t>
   </si>
   <si>
@@ -1591,15 +1390,9 @@
     <t>R_1pAMzWudIqtdHjM</t>
   </si>
   <si>
-    <t>77.232.122.168</t>
-  </si>
-  <si>
     <t>R_2iwJ3KHbISimjFn</t>
   </si>
   <si>
-    <t>51.36.4.177</t>
-  </si>
-  <si>
     <t>R_1NaCq7rdUsuXRNy</t>
   </si>
   <si>
@@ -1607,9 +1400,6 @@
   </si>
   <si>
     <t>R_2QJsXWX3SDKDaZC</t>
-  </si>
-  <si>
-    <t>77.232.122.123</t>
   </si>
   <si>
     <t>R_1GKsTg0UHRGuCH2</t>
@@ -1621,7 +1411,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2164,9 +1954,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2204,7 +1994,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2310,7 +2100,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2452,19 +2242,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2967,12 +2755,6 @@
       <c r="I4" t="s">
         <v>153</v>
       </c>
-      <c r="L4">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M4">
-        <v>46.7178955078125</v>
-      </c>
       <c r="N4" t="s">
         <v>154</v>
       </c>
@@ -3089,9 +2871,6 @@
       <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>177</v>
-      </c>
       <c r="E5">
         <v>100</v>
       </c>
@@ -3105,25 +2884,19 @@
         <v>44594.220462962963</v>
       </c>
       <c r="I5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" t="s">
         <v>178</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>179</v>
       </c>
-      <c r="L5">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M5">
-        <v>46.7178955078125</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>180</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>181</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>182</v>
       </c>
       <c r="R5" t="s">
         <v>161</v>
@@ -3132,7 +2905,7 @@
         <v>161</v>
       </c>
       <c r="V5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X5" t="s">
         <v>161</v>
@@ -3141,7 +2914,7 @@
         <v>162</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF5" t="s">
         <v>165</v>
@@ -3162,7 +2935,7 @@
         <v>168</v>
       </c>
       <c r="AR5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT5" t="s">
         <v>165</v>
@@ -3174,10 +2947,10 @@
         <v>173</v>
       </c>
       <c r="AX5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY5" t="s">
         <v>186</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>187</v>
       </c>
       <c r="AZ5" t="s">
         <v>176</v>
@@ -3193,9 +2966,6 @@
       <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
       <c r="E6">
         <v>100</v>
       </c>
@@ -3209,25 +2979,19 @@
         <v>44594.235486111109</v>
       </c>
       <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" t="s">
         <v>188</v>
       </c>
-      <c r="L6">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M6">
-        <v>46.7178955078125</v>
-      </c>
-      <c r="N6" t="s">
-        <v>189</v>
-      </c>
       <c r="O6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P6" t="s">
         <v>156</v>
       </c>
       <c r="Q6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R6" t="s">
         <v>161</v>
@@ -3236,16 +3000,16 @@
         <v>161</v>
       </c>
       <c r="V6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X6" t="s">
         <v>161</v>
       </c>
       <c r="Z6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" t="s">
         <v>191</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>192</v>
       </c>
       <c r="AC6" t="s">
         <v>172</v>
@@ -3269,22 +3033,22 @@
         <v>168</v>
       </c>
       <c r="AR6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT6" t="s">
         <v>165</v>
       </c>
       <c r="AW6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY6" t="s">
         <v>193</v>
       </c>
-      <c r="AX6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>194</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
@@ -3297,9 +3061,6 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>177</v>
-      </c>
       <c r="E7">
         <v>100</v>
       </c>
@@ -3313,34 +3074,28 @@
         <v>44594.236145833333</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M7">
-        <v>46.7178955078125</v>
+        <v>195</v>
       </c>
       <c r="N7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P7" t="s">
         <v>156</v>
       </c>
       <c r="T7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X7" t="s">
         <v>161</v>
       </c>
       <c r="Z7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC7" t="s">
         <v>172</v>
@@ -3349,7 +3104,7 @@
         <v>165</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF7" t="s">
         <v>164</v>
@@ -3364,7 +3119,7 @@
         <v>168</v>
       </c>
       <c r="AJ7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK7" t="s">
         <v>167</v>
@@ -3376,7 +3131,7 @@
         <v>170</v>
       </c>
       <c r="AN7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO7" t="s">
         <v>170</v>
@@ -3397,10 +3152,10 @@
         <v>172</v>
       </c>
       <c r="AY7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
@@ -3413,9 +3168,6 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>201</v>
-      </c>
       <c r="E8">
         <v>100</v>
       </c>
@@ -3429,22 +3181,16 @@
         <v>44595.166655092595</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M8">
-        <v>46.7178955078125</v>
+        <v>201</v>
       </c>
       <c r="N8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" t="s">
         <v>180</v>
-      </c>
-      <c r="O8" t="s">
-        <v>181</v>
       </c>
       <c r="P8" t="s">
         <v>156</v>
@@ -3459,28 +3205,28 @@
         <v>161</v>
       </c>
       <c r="V8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X8" t="s">
         <v>161</v>
       </c>
       <c r="Z8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC8" t="s">
         <v>163</v>
       </c>
       <c r="AD8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE8" t="s">
         <v>165</v>
       </c>
       <c r="AF8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG8" t="s">
         <v>170</v>
@@ -3489,7 +3235,7 @@
         <v>167</v>
       </c>
       <c r="AI8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ8" t="s">
         <v>165</v>
@@ -3504,7 +3250,7 @@
         <v>170</v>
       </c>
       <c r="AN8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO8" t="s">
         <v>170</v>
@@ -3528,19 +3274,19 @@
         <v>172</v>
       </c>
       <c r="AV8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY8" t="s">
         <v>207</v>
       </c>
-      <c r="AW8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX8" t="s">
+      <c r="AZ8" t="s">
         <v>208</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>209</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
@@ -3553,9 +3299,6 @@
       <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>211</v>
-      </c>
       <c r="E9">
         <v>100</v>
       </c>
@@ -3569,28 +3312,22 @@
         <v>44595.177303240744</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J9" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9">
-        <v>21.516799926757798</v>
-      </c>
-      <c r="M9">
-        <v>39.219192504882798</v>
+        <v>210</v>
       </c>
       <c r="N9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" t="s">
         <v>180</v>
-      </c>
-      <c r="O9" t="s">
-        <v>181</v>
       </c>
       <c r="P9" t="s">
         <v>156</v>
       </c>
       <c r="Q9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R9" t="s">
         <v>158</v>
@@ -3611,16 +3348,16 @@
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC9" t="s">
         <v>163</v>
@@ -3629,31 +3366,31 @@
         <v>165</v>
       </c>
       <c r="AE9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF9" t="s">
         <v>165</v>
       </c>
       <c r="AG9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH9" t="s">
         <v>167</v>
       </c>
       <c r="AI9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL9" t="s">
         <v>170</v>
       </c>
       <c r="AM9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN9" t="s">
         <v>165</v>
@@ -3665,7 +3402,7 @@
         <v>170</v>
       </c>
       <c r="AQ9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR9" t="s">
         <v>171</v>
@@ -3680,7 +3417,7 @@
         <v>164</v>
       </c>
       <c r="AV9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW9" t="s">
         <v>173</v>
@@ -3689,10 +3426,10 @@
         <v>174</v>
       </c>
       <c r="AY9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
@@ -3705,9 +3442,6 @@
       <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
-        <v>219</v>
-      </c>
       <c r="E10">
         <v>100</v>
       </c>
@@ -3721,28 +3455,22 @@
         <v>44595.178877314815</v>
       </c>
       <c r="I10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
-        <v>221</v>
-      </c>
-      <c r="L10">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M10">
-        <v>46.7178955078125</v>
+        <v>217</v>
       </c>
       <c r="N10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" t="s">
         <v>180</v>
-      </c>
-      <c r="O10" t="s">
-        <v>181</v>
       </c>
       <c r="P10" t="s">
         <v>156</v>
       </c>
       <c r="Q10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R10" t="s">
         <v>158</v>
@@ -3778,7 +3506,7 @@
         <v>172</v>
       </c>
       <c r="AF10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG10" t="s">
         <v>166</v>
@@ -3790,7 +3518,7 @@
         <v>166</v>
       </c>
       <c r="AJ10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK10" t="s">
         <v>170</v>
@@ -3802,19 +3530,19 @@
         <v>167</v>
       </c>
       <c r="AN10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP10" t="s">
         <v>166</v>
       </c>
       <c r="AQ10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT10" t="s">
         <v>172</v>
@@ -3823,19 +3551,19 @@
         <v>172</v>
       </c>
       <c r="AV10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX10" t="s">
         <v>174</v>
       </c>
       <c r="AY10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AZ10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
@@ -3848,9 +3576,6 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>225</v>
-      </c>
       <c r="E11">
         <v>100</v>
       </c>
@@ -3864,28 +3589,22 @@
         <v>44595.207349537035</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M11">
-        <v>46.7178955078125</v>
+        <v>222</v>
       </c>
       <c r="N11" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" t="s">
         <v>180</v>
-      </c>
-      <c r="O11" t="s">
-        <v>181</v>
       </c>
       <c r="P11" t="s">
         <v>156</v>
       </c>
       <c r="Q11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R11" t="s">
         <v>158</v>
@@ -3906,40 +3625,40 @@
         <v>161</v>
       </c>
       <c r="Z11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA11" t="s">
         <v>191</v>
       </c>
-      <c r="AA11" t="s">
-        <v>192</v>
-      </c>
       <c r="AC11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD11" t="s">
         <v>165</v>
       </c>
       <c r="AE11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG11" t="s">
         <v>168</v>
       </c>
       <c r="AH11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI11" t="s">
         <v>168</v>
       </c>
       <c r="AJ11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK11" t="s">
         <v>167</v>
       </c>
       <c r="AL11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM11" t="s">
         <v>167</v>
@@ -3948,13 +3667,13 @@
         <v>164</v>
       </c>
       <c r="AO11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR11" t="s">
         <v>171</v>
@@ -3966,19 +3685,19 @@
         <v>164</v>
       </c>
       <c r="AV11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AZ11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
@@ -3991,9 +3710,6 @@
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>230</v>
-      </c>
       <c r="E12">
         <v>100</v>
       </c>
@@ -4007,28 +3723,22 @@
         <v>44595.208773148152</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J12" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M12">
-        <v>46.7178955078125</v>
+        <v>226</v>
       </c>
       <c r="N12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O12" t="s">
         <v>180</v>
-      </c>
-      <c r="O12" t="s">
-        <v>181</v>
       </c>
       <c r="P12" t="s">
         <v>156</v>
       </c>
       <c r="Q12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R12" t="s">
         <v>158</v>
@@ -4049,22 +3759,22 @@
         <v>4</v>
       </c>
       <c r="X12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y12">
         <v>7</v>
       </c>
       <c r="Z12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB12">
         <v>2</v>
       </c>
       <c r="AC12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD12" t="s">
         <v>172</v>
@@ -4085,7 +3795,7 @@
         <v>168</v>
       </c>
       <c r="AJ12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK12" t="s">
         <v>170</v>
@@ -4097,7 +3807,7 @@
         <v>170</v>
       </c>
       <c r="AN12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO12" t="s">
         <v>167</v>
@@ -4121,19 +3831,19 @@
         <v>172</v>
       </c>
       <c r="AV12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX12" t="s">
         <v>228</v>
       </c>
-      <c r="AW12" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>234</v>
-      </c>
       <c r="AY12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AZ12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
@@ -4146,9 +3856,6 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>236</v>
-      </c>
       <c r="E13">
         <v>100</v>
       </c>
@@ -4162,28 +3869,22 @@
         <v>44595.24496527778</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M13">
-        <v>46.7178955078125</v>
+        <v>231</v>
       </c>
       <c r="N13" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" t="s">
         <v>180</v>
-      </c>
-      <c r="O13" t="s">
-        <v>181</v>
       </c>
       <c r="P13" t="s">
         <v>156</v>
       </c>
       <c r="Q13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R13" t="s">
         <v>161</v>
@@ -4192,25 +3893,25 @@
         <v>161</v>
       </c>
       <c r="V13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC13" t="s">
         <v>165</v>
       </c>
       <c r="AD13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF13" t="s">
         <v>164</v>
@@ -4225,7 +3926,7 @@
         <v>170</v>
       </c>
       <c r="AJ13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK13" t="s">
         <v>167</v>
@@ -4234,10 +3935,10 @@
         <v>170</v>
       </c>
       <c r="AM13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO13" t="s">
         <v>167</v>
@@ -4246,7 +3947,7 @@
         <v>170</v>
       </c>
       <c r="AQ13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR13" t="s">
         <v>171</v>
@@ -4258,22 +3959,22 @@
         <v>164</v>
       </c>
       <c r="AU13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AZ13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
@@ -4286,9 +3987,6 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
-        <v>240</v>
-      </c>
       <c r="E14">
         <v>100</v>
       </c>
@@ -4302,22 +4000,16 @@
         <v>44595.246944444443</v>
       </c>
       <c r="I14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="J14" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M14">
-        <v>46.7178955078125</v>
+        <v>234</v>
       </c>
       <c r="N14" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" t="s">
         <v>180</v>
-      </c>
-      <c r="O14" t="s">
-        <v>181</v>
       </c>
       <c r="P14" t="s">
         <v>156</v>
@@ -4344,43 +4036,43 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC14" t="s">
         <v>165</v>
       </c>
       <c r="AD14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH14" t="s">
         <v>167</v>
       </c>
       <c r="AI14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ14" t="s">
         <v>165</v>
       </c>
       <c r="AK14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL14" t="s">
         <v>170</v>
@@ -4389,10 +4081,10 @@
         <v>167</v>
       </c>
       <c r="AN14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP14" t="s">
         <v>167</v>
@@ -4413,7 +4105,7 @@
         <v>172</v>
       </c>
       <c r="AV14" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW14" t="s">
         <v>173</v>
@@ -4422,10 +4114,10 @@
         <v>174</v>
       </c>
       <c r="AY14" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AZ14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
@@ -4438,9 +4130,6 @@
       <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" t="s">
-        <v>245</v>
-      </c>
       <c r="E15">
         <v>100</v>
       </c>
@@ -4454,22 +4143,16 @@
         <v>44595.247303240743</v>
       </c>
       <c r="I15" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J15" t="s">
-        <v>247</v>
-      </c>
-      <c r="L15">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M15">
-        <v>46.7178955078125</v>
+        <v>238</v>
       </c>
       <c r="N15" t="s">
+        <v>179</v>
+      </c>
+      <c r="O15" t="s">
         <v>180</v>
-      </c>
-      <c r="O15" t="s">
-        <v>181</v>
       </c>
       <c r="P15" t="s">
         <v>156</v>
@@ -4484,16 +4167,16 @@
         <v>161</v>
       </c>
       <c r="V15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y15">
         <v>3</v>
       </c>
       <c r="Z15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA15" t="s">
         <v>161</v>
@@ -4505,10 +4188,10 @@
         <v>165</v>
       </c>
       <c r="AE15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG15" t="s">
         <v>168</v>
@@ -4520,7 +4203,7 @@
         <v>166</v>
       </c>
       <c r="AJ15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK15" t="s">
         <v>168</v>
@@ -4547,22 +4230,22 @@
         <v>171</v>
       </c>
       <c r="AT15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AU15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY15" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AZ15" t="s">
         <v>176</v>
@@ -4578,9 +4261,6 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
-        <v>249</v>
-      </c>
       <c r="E16">
         <v>100</v>
       </c>
@@ -4594,22 +4274,16 @@
         <v>44595.274583333332</v>
       </c>
       <c r="I16" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J16" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M16">
-        <v>46.7178955078125</v>
+        <v>241</v>
       </c>
       <c r="N16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" t="s">
         <v>180</v>
-      </c>
-      <c r="O16" t="s">
-        <v>181</v>
       </c>
       <c r="P16" t="s">
         <v>156</v>
@@ -4621,16 +4295,16 @@
         <v>161</v>
       </c>
       <c r="T16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
         <v>161</v>
       </c>
       <c r="Z16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC16" t="s">
         <v>172</v>
@@ -4645,7 +4319,7 @@
         <v>169</v>
       </c>
       <c r="AG16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH16" t="s">
         <v>170</v>
@@ -4657,19 +4331,19 @@
         <v>164</v>
       </c>
       <c r="AK16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL16" t="s">
         <v>167</v>
       </c>
       <c r="AM16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP16" t="s">
         <v>170</v>
@@ -4690,7 +4364,7 @@
         <v>172</v>
       </c>
       <c r="AV16" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW16" t="s">
         <v>173</v>
@@ -4699,10 +4373,10 @@
         <v>174</v>
       </c>
       <c r="AY16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AZ16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
@@ -4715,9 +4389,6 @@
       <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
-        <v>253</v>
-      </c>
       <c r="E17">
         <v>100</v>
       </c>
@@ -4731,22 +4402,16 @@
         <v>44595.286354166667</v>
       </c>
       <c r="I17" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>255</v>
-      </c>
-      <c r="L17">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M17">
-        <v>46.7178955078125</v>
+        <v>244</v>
       </c>
       <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
         <v>180</v>
-      </c>
-      <c r="O17" t="s">
-        <v>181</v>
       </c>
       <c r="P17" t="s">
         <v>156</v>
@@ -4767,16 +4432,16 @@
         <v>100</v>
       </c>
       <c r="X17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y17">
         <v>3</v>
       </c>
       <c r="Z17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC17" t="s">
         <v>163</v>
@@ -4791,25 +4456,25 @@
         <v>164</v>
       </c>
       <c r="AG17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH17" t="s">
         <v>167</v>
       </c>
       <c r="AI17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ17" t="s">
         <v>164</v>
       </c>
       <c r="AK17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s">
         <v>170</v>
       </c>
       <c r="AM17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s">
         <v>164</v>
@@ -4833,10 +4498,10 @@
         <v>163</v>
       </c>
       <c r="AU17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW17" t="s">
         <v>173</v>
@@ -4845,10 +4510,10 @@
         <v>174</v>
       </c>
       <c r="AY17" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AZ17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
@@ -4861,9 +4526,6 @@
       <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
       <c r="E18">
         <v>100</v>
       </c>
@@ -4877,28 +4539,22 @@
         <v>44595.336631944447</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J18" t="s">
-        <v>260</v>
-      </c>
-      <c r="L18">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M18">
-        <v>46.7178955078125</v>
+        <v>248</v>
       </c>
       <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
         <v>180</v>
-      </c>
-      <c r="O18" t="s">
-        <v>181</v>
       </c>
       <c r="P18" t="s">
         <v>156</v>
       </c>
       <c r="Q18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R18" t="s">
         <v>158</v>
@@ -4916,19 +4572,19 @@
         <v>30</v>
       </c>
       <c r="X18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y18">
         <v>15</v>
       </c>
       <c r="Z18" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD18" t="s">
         <v>164</v>
@@ -4937,7 +4593,7 @@
         <v>172</v>
       </c>
       <c r="AF18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s">
         <v>170</v>
@@ -4985,19 +4641,19 @@
         <v>164</v>
       </c>
       <c r="AV18" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY18" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AZ18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
@@ -5010,9 +4666,6 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
-        <v>262</v>
-      </c>
       <c r="E19">
         <v>100</v>
       </c>
@@ -5026,22 +4679,16 @@
         <v>44595.608726851853</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M19">
-        <v>46.7178955078125</v>
+        <v>251</v>
       </c>
       <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
         <v>180</v>
-      </c>
-      <c r="O19" t="s">
-        <v>181</v>
       </c>
       <c r="P19" t="s">
         <v>156</v>
@@ -5059,16 +4706,16 @@
         <v>161</v>
       </c>
       <c r="V19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
         <v>161</v>
       </c>
       <c r="Z19" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -5086,7 +4733,7 @@
         <v>164</v>
       </c>
       <c r="AG19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH19" t="s">
         <v>168</v>
@@ -5095,7 +4742,7 @@
         <v>167</v>
       </c>
       <c r="AJ19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK19" t="s">
         <v>167</v>
@@ -5107,7 +4754,7 @@
         <v>167</v>
       </c>
       <c r="AN19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s">
         <v>167</v>
@@ -5128,22 +4775,22 @@
         <v>172</v>
       </c>
       <c r="AU19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX19" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="AY19" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AZ19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
@@ -5156,9 +4803,6 @@
       <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
-        <v>267</v>
-      </c>
       <c r="E20">
         <v>100</v>
       </c>
@@ -5172,28 +4816,22 @@
         <v>44595.792534722219</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J20" t="s">
-        <v>269</v>
-      </c>
-      <c r="L20">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M20">
-        <v>46.7178955078125</v>
+        <v>255</v>
       </c>
       <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
         <v>180</v>
-      </c>
-      <c r="O20" t="s">
-        <v>181</v>
       </c>
       <c r="P20" t="s">
         <v>156</v>
       </c>
       <c r="Q20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R20" t="s">
         <v>158</v>
@@ -5214,16 +4852,16 @@
         <v>2</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB20">
         <v>19</v>
@@ -5238,7 +4876,7 @@
         <v>164</v>
       </c>
       <c r="AF20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s">
         <v>167</v>
@@ -5250,10 +4888,10 @@
         <v>170</v>
       </c>
       <c r="AJ20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s">
         <v>170</v>
@@ -5262,7 +4900,7 @@
         <v>170</v>
       </c>
       <c r="AN20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s">
         <v>167</v>
@@ -5286,16 +4924,16 @@
         <v>172</v>
       </c>
       <c r="AV20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX20" t="s">
         <v>174</v>
       </c>
       <c r="AY20" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AZ20" t="s">
         <v>176</v>
@@ -5311,9 +4949,6 @@
       <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
-        <v>271</v>
-      </c>
       <c r="E21">
         <v>100</v>
       </c>
@@ -5327,22 +4962,16 @@
         <v>44595.837372685186</v>
       </c>
       <c r="I21" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J21" t="s">
-        <v>273</v>
-      </c>
-      <c r="L21">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M21">
-        <v>46.7178955078125</v>
+        <v>258</v>
       </c>
       <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
         <v>180</v>
-      </c>
-      <c r="O21" t="s">
-        <v>181</v>
       </c>
       <c r="P21" t="s">
         <v>156</v>
@@ -5363,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y21">
         <v>4</v>
       </c>
       <c r="Z21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC21" t="s">
         <v>163</v>
@@ -5378,7 +5007,7 @@
         <v>165</v>
       </c>
       <c r="AE21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s">
         <v>165</v>
@@ -5393,7 +5022,7 @@
         <v>167</v>
       </c>
       <c r="AJ21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s">
         <v>170</v>
@@ -5405,7 +5034,7 @@
         <v>170</v>
       </c>
       <c r="AN21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO21" t="s">
         <v>167</v>
@@ -5429,16 +5058,16 @@
         <v>172</v>
       </c>
       <c r="AV21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX21" t="s">
         <v>174</v>
       </c>
       <c r="AY21" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AZ21" t="s">
         <v>176</v>
@@ -5454,9 +5083,6 @@
       <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>275</v>
-      </c>
       <c r="E22">
         <v>100</v>
       </c>
@@ -5470,28 +5096,22 @@
         <v>44596.035879629628</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="J22" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M22">
-        <v>46.7178955078125</v>
+        <v>261</v>
       </c>
       <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
         <v>180</v>
-      </c>
-      <c r="O22" t="s">
-        <v>181</v>
       </c>
       <c r="P22" t="s">
         <v>156</v>
       </c>
       <c r="Q22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R22" t="s">
         <v>158</v>
@@ -5512,16 +5132,16 @@
         <v>20</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y22">
         <v>20</v>
       </c>
       <c r="Z22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA22" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB22">
         <v>3</v>
@@ -5548,7 +5168,7 @@
         <v>167</v>
       </c>
       <c r="AJ22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s">
         <v>167</v>
@@ -5584,7 +5204,7 @@
         <v>172</v>
       </c>
       <c r="AV22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW22" t="s">
         <v>173</v>
@@ -5593,10 +5213,10 @@
         <v>174</v>
       </c>
       <c r="AY22" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AZ22" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
@@ -5609,9 +5229,6 @@
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>280</v>
-      </c>
       <c r="E23">
         <v>100</v>
       </c>
@@ -5625,22 +5242,16 @@
         <v>44596.271377314813</v>
       </c>
       <c r="I23" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="J23" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M23">
-        <v>46.7178955078125</v>
+        <v>265</v>
       </c>
       <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
         <v>180</v>
-      </c>
-      <c r="O23" t="s">
-        <v>181</v>
       </c>
       <c r="P23" t="s">
         <v>156</v>
@@ -5667,25 +5278,25 @@
         <v>6</v>
       </c>
       <c r="X23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA23" t="s">
         <v>191</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>192</v>
       </c>
       <c r="AC23" t="s">
         <v>172</v>
       </c>
       <c r="AD23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE23" t="s">
         <v>165</v>
       </c>
       <c r="AF23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s">
         <v>170</v>
@@ -5733,7 +5344,7 @@
         <v>172</v>
       </c>
       <c r="AV23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW23" t="s">
         <v>173</v>
@@ -5742,10 +5353,10 @@
         <v>174</v>
       </c>
       <c r="AY23" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AZ23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
@@ -5758,9 +5369,6 @@
       <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
-        <v>284</v>
-      </c>
       <c r="E24">
         <v>100</v>
       </c>
@@ -5774,34 +5382,28 @@
         <v>44596.274930555555</v>
       </c>
       <c r="I24" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="J24" t="s">
-        <v>286</v>
-      </c>
-      <c r="L24">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M24">
-        <v>46.7178955078125</v>
+        <v>268</v>
       </c>
       <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
         <v>180</v>
-      </c>
-      <c r="O24" t="s">
-        <v>181</v>
       </c>
       <c r="P24" t="s">
         <v>156</v>
       </c>
       <c r="Q24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R24" t="s">
         <v>158</v>
       </c>
       <c r="T24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V24" t="s">
         <v>160</v>
@@ -5810,19 +5412,19 @@
         <v>3</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y24">
         <v>3</v>
       </c>
       <c r="Z24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA24" t="s">
         <v>161</v>
       </c>
       <c r="AC24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD24" t="s">
         <v>165</v>
@@ -5831,7 +5433,7 @@
         <v>163</v>
       </c>
       <c r="AF24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s">
         <v>166</v>
@@ -5843,7 +5445,7 @@
         <v>168</v>
       </c>
       <c r="AJ24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK24" t="s">
         <v>166</v>
@@ -5855,7 +5457,7 @@
         <v>168</v>
       </c>
       <c r="AN24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO24" t="s">
         <v>167</v>
@@ -5879,19 +5481,19 @@
         <v>165</v>
       </c>
       <c r="AV24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW24" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX24" t="s">
         <v>174</v>
       </c>
       <c r="AY24" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="AZ24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
@@ -5904,9 +5506,6 @@
       <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
-        <v>288</v>
-      </c>
       <c r="E25">
         <v>100</v>
       </c>
@@ -5920,22 +5519,16 @@
         <v>44597.462106481478</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M25">
-        <v>46.7178955078125</v>
+        <v>271</v>
       </c>
       <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
         <v>180</v>
-      </c>
-      <c r="O25" t="s">
-        <v>181</v>
       </c>
       <c r="P25" t="s">
         <v>156</v>
@@ -5959,22 +5552,22 @@
         <v>161</v>
       </c>
       <c r="Z25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB25">
         <v>5</v>
       </c>
       <c r="AR25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY25" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="AZ25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
@@ -5987,9 +5580,6 @@
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
-        <v>292</v>
-      </c>
       <c r="E26">
         <v>100</v>
       </c>
@@ -6003,22 +5593,16 @@
         <v>44598.082280092596</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
-      </c>
-      <c r="L26">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M26">
-        <v>46.7178955078125</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" t="s">
         <v>180</v>
-      </c>
-      <c r="O26" t="s">
-        <v>181</v>
       </c>
       <c r="P26" t="s">
         <v>156</v>
@@ -6045,28 +5629,28 @@
         <v>7</v>
       </c>
       <c r="X26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB26">
         <v>3</v>
       </c>
       <c r="AC26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF26" t="s">
         <v>169</v>
@@ -6084,25 +5668,25 @@
         <v>164</v>
       </c>
       <c r="AK26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR26" t="s">
         <v>171</v>
@@ -6114,10 +5698,10 @@
         <v>163</v>
       </c>
       <c r="AU26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW26" t="s">
         <v>173</v>
@@ -6126,7 +5710,7 @@
         <v>174</v>
       </c>
       <c r="AY26" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="AZ26" t="s">
         <v>176</v>
@@ -6142,9 +5726,6 @@
       <c r="C27" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
       <c r="E27">
         <v>100</v>
       </c>
@@ -6158,28 +5739,22 @@
         <v>44598.090474537035</v>
       </c>
       <c r="I27" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>298</v>
-      </c>
-      <c r="L27">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M27">
-        <v>46.7178955078125</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s">
+        <v>179</v>
+      </c>
+      <c r="O27" t="s">
         <v>180</v>
-      </c>
-      <c r="O27" t="s">
-        <v>181</v>
       </c>
       <c r="P27" t="s">
         <v>156</v>
       </c>
       <c r="Q27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R27" t="s">
         <v>158</v>
@@ -6200,16 +5775,16 @@
         <v>5</v>
       </c>
       <c r="X27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y27">
         <v>4</v>
       </c>
       <c r="Z27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB27">
         <v>3</v>
@@ -6248,7 +5823,7 @@
         <v>170</v>
       </c>
       <c r="AN27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO27" t="s">
         <v>170</v>
@@ -6272,19 +5847,19 @@
         <v>164</v>
       </c>
       <c r="AV27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX27" t="s">
         <v>228</v>
       </c>
-      <c r="AW27" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>234</v>
-      </c>
       <c r="AY27" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="AZ27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
@@ -6297,9 +5872,6 @@
       <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>300</v>
-      </c>
       <c r="E28">
         <v>100</v>
       </c>
@@ -6313,28 +5885,22 @@
         <v>44598.098344907405</v>
       </c>
       <c r="I28" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>302</v>
-      </c>
-      <c r="L28">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M28">
-        <v>46.7178955078125</v>
+        <v>280</v>
       </c>
       <c r="N28" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" t="s">
         <v>180</v>
-      </c>
-      <c r="O28" t="s">
-        <v>181</v>
       </c>
       <c r="P28" t="s">
         <v>156</v>
       </c>
       <c r="Q28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R28" t="s">
         <v>158</v>
@@ -6355,16 +5921,16 @@
         <v>3</v>
       </c>
       <c r="X28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y28">
         <v>5</v>
       </c>
       <c r="Z28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB28">
         <v>5</v>
@@ -6400,10 +5966,10 @@
         <v>170</v>
       </c>
       <c r="AM28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s">
         <v>167</v>
@@ -6427,19 +5993,19 @@
         <v>163</v>
       </c>
       <c r="AV28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW28" t="s">
         <v>173</v>
       </c>
       <c r="AX28" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AY28" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="AZ28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
@@ -6452,9 +6018,6 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" t="s">
-        <v>305</v>
-      </c>
       <c r="E29">
         <v>100</v>
       </c>
@@ -6468,28 +6031,22 @@
         <v>44598.099988425929</v>
       </c>
       <c r="I29" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
-      </c>
-      <c r="L29">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M29">
-        <v>46.7178955078125</v>
+        <v>284</v>
       </c>
       <c r="N29" t="s">
+        <v>179</v>
+      </c>
+      <c r="O29" t="s">
         <v>180</v>
-      </c>
-      <c r="O29" t="s">
-        <v>181</v>
       </c>
       <c r="P29" t="s">
         <v>156</v>
       </c>
       <c r="Q29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R29" t="s">
         <v>158</v>
@@ -6510,16 +6067,16 @@
         <v>8</v>
       </c>
       <c r="X29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y29">
         <v>10</v>
       </c>
       <c r="Z29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA29" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB29">
         <v>4</v>
@@ -6528,16 +6085,16 @@
         <v>165</v>
       </c>
       <c r="AD29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH29" t="s">
         <v>167</v>
@@ -6546,10 +6103,10 @@
         <v>170</v>
       </c>
       <c r="AJ29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL29" t="s">
         <v>167</v>
@@ -6561,7 +6118,7 @@
         <v>169</v>
       </c>
       <c r="AO29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP29" t="s">
         <v>170</v>
@@ -6570,7 +6127,7 @@
         <v>167</v>
       </c>
       <c r="AR29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT29" t="s">
         <v>164</v>
@@ -6579,16 +6136,16 @@
         <v>163</v>
       </c>
       <c r="AV29" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW29" t="s">
         <v>173</v>
       </c>
       <c r="AX29" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AY29" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="AZ29" t="s">
         <v>176</v>
@@ -6604,9 +6161,6 @@
       <c r="C30" t="s">
         <v>55</v>
       </c>
-      <c r="D30" t="s">
-        <v>310</v>
-      </c>
       <c r="E30">
         <v>100</v>
       </c>
@@ -6620,22 +6174,16 @@
         <v>44598.103055555555</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
-      </c>
-      <c r="L30">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M30">
-        <v>46.7178955078125</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s">
+        <v>179</v>
+      </c>
+      <c r="O30" t="s">
         <v>180</v>
-      </c>
-      <c r="O30" t="s">
-        <v>181</v>
       </c>
       <c r="P30" t="s">
         <v>156</v>
@@ -6647,16 +6195,16 @@
         <v>161</v>
       </c>
       <c r="T30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X30" t="s">
         <v>161</v>
       </c>
       <c r="Z30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA30" t="s">
         <v>161</v>
@@ -6671,7 +6219,7 @@
         <v>164</v>
       </c>
       <c r="AF30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG30" t="s">
         <v>167</v>
@@ -6695,16 +6243,16 @@
         <v>167</v>
       </c>
       <c r="AN30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP30" t="s">
         <v>170</v>
       </c>
       <c r="AQ30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR30" t="s">
         <v>171</v>
@@ -6719,19 +6267,19 @@
         <v>163</v>
       </c>
       <c r="AV30" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX30" t="s">
         <v>174</v>
       </c>
       <c r="AY30" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="AZ30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
@@ -6744,9 +6292,6 @@
       <c r="C31" t="s">
         <v>55</v>
       </c>
-      <c r="D31" t="s">
-        <v>315</v>
-      </c>
       <c r="E31">
         <v>100</v>
       </c>
@@ -6760,28 +6305,22 @@
         <v>44598.15828703704</v>
       </c>
       <c r="I31" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>317</v>
-      </c>
-      <c r="L31">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M31">
-        <v>46.7178955078125</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s">
+        <v>179</v>
+      </c>
+      <c r="O31" t="s">
         <v>180</v>
-      </c>
-      <c r="O31" t="s">
-        <v>181</v>
       </c>
       <c r="P31" t="s">
         <v>156</v>
       </c>
       <c r="Q31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R31" t="s">
         <v>158</v>
@@ -6802,19 +6341,19 @@
         <v>100</v>
       </c>
       <c r="X31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB31">
         <v>2</v>
       </c>
       <c r="AC31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD31" t="s">
         <v>165</v>
@@ -6829,13 +6368,13 @@
         <v>168</v>
       </c>
       <c r="AH31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI31" t="s">
         <v>168</v>
       </c>
       <c r="AJ31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK31" t="s">
         <v>170</v>
@@ -6844,10 +6383,10 @@
         <v>167</v>
       </c>
       <c r="AM31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO31" t="s">
         <v>167</v>
@@ -6871,7 +6410,7 @@
         <v>163</v>
       </c>
       <c r="AV31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW31" t="s">
         <v>173</v>
@@ -6880,10 +6419,10 @@
         <v>174</v>
       </c>
       <c r="AY31" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="AZ31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
@@ -6896,9 +6435,6 @@
       <c r="C32" t="s">
         <v>55</v>
       </c>
-      <c r="D32" t="s">
-        <v>319</v>
-      </c>
       <c r="E32">
         <v>100</v>
       </c>
@@ -6912,22 +6448,16 @@
         <v>44598.184212962966</v>
       </c>
       <c r="I32" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>321</v>
-      </c>
-      <c r="L32">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M32">
-        <v>46.7178955078125</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s">
+        <v>179</v>
+      </c>
+      <c r="O32" t="s">
         <v>180</v>
-      </c>
-      <c r="O32" t="s">
-        <v>181</v>
       </c>
       <c r="P32" t="s">
         <v>156</v>
@@ -6939,7 +6469,7 @@
         <v>158</v>
       </c>
       <c r="T32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V32" t="s">
         <v>160</v>
@@ -6948,13 +6478,13 @@
         <v>161</v>
       </c>
       <c r="Z32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC32" t="s">
         <v>163</v>
       </c>
       <c r="AD32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE32" t="s">
         <v>165</v>
@@ -6996,22 +6526,22 @@
         <v>172</v>
       </c>
       <c r="AU32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX32" t="s">
         <v>174</v>
       </c>
       <c r="AY32" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="AZ32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
@@ -7024,9 +6554,6 @@
       <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s">
-        <v>323</v>
-      </c>
       <c r="E33">
         <v>100</v>
       </c>
@@ -7040,28 +6567,22 @@
         <v>44598.208379629628</v>
       </c>
       <c r="I33" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>325</v>
-      </c>
-      <c r="L33">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M33">
-        <v>46.7178955078125</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s">
+        <v>179</v>
+      </c>
+      <c r="O33" t="s">
         <v>180</v>
-      </c>
-      <c r="O33" t="s">
-        <v>181</v>
       </c>
       <c r="P33" t="s">
         <v>156</v>
       </c>
       <c r="Q33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R33" t="s">
         <v>158</v>
@@ -7082,16 +6603,16 @@
         <v>4</v>
       </c>
       <c r="X33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y33">
         <v>5</v>
       </c>
       <c r="Z33" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB33">
         <v>8</v>
@@ -7106,7 +6627,7 @@
         <v>164</v>
       </c>
       <c r="AF33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG33" t="s">
         <v>170</v>
@@ -7118,7 +6639,7 @@
         <v>170</v>
       </c>
       <c r="AJ33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK33" t="s">
         <v>170</v>
@@ -7154,19 +6675,19 @@
         <v>172</v>
       </c>
       <c r="AV33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW33" t="s">
         <v>173</v>
       </c>
       <c r="AX33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY33" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="AZ33" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
@@ -7179,9 +6700,6 @@
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D34" t="s">
-        <v>327</v>
-      </c>
       <c r="E34">
         <v>100</v>
       </c>
@@ -7195,28 +6713,22 @@
         <v>44598.300995370373</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
-      </c>
-      <c r="L34">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M34">
-        <v>46.7178955078125</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s">
+        <v>179</v>
+      </c>
+      <c r="O34" t="s">
         <v>180</v>
-      </c>
-      <c r="O34" t="s">
-        <v>181</v>
       </c>
       <c r="P34" t="s">
         <v>156</v>
       </c>
       <c r="Q34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R34" t="s">
         <v>158</v>
@@ -7225,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V34" t="s">
         <v>160</v>
@@ -7234,31 +6746,31 @@
         <v>3</v>
       </c>
       <c r="X34" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y34">
         <v>6</v>
       </c>
       <c r="Z34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC34" t="s">
         <v>172</v>
       </c>
       <c r="AD34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH34" t="s">
         <v>167</v>
@@ -7267,10 +6779,10 @@
         <v>167</v>
       </c>
       <c r="AJ34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL34" t="s">
         <v>167</v>
@@ -7288,7 +6800,7 @@
         <v>170</v>
       </c>
       <c r="AQ34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR34" t="s">
         <v>171</v>
@@ -7300,22 +6812,22 @@
         <v>164</v>
       </c>
       <c r="AU34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX34" t="s">
         <v>174</v>
       </c>
       <c r="AY34" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="AZ34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
@@ -7328,9 +6840,6 @@
       <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
-        <v>331</v>
-      </c>
       <c r="E35">
         <v>100</v>
       </c>
@@ -7344,22 +6853,16 @@
         <v>44598.323217592595</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
-      </c>
-      <c r="L35">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M35">
-        <v>46.7178955078125</v>
+        <v>304</v>
       </c>
       <c r="N35" t="s">
+        <v>179</v>
+      </c>
+      <c r="O35" t="s">
         <v>180</v>
-      </c>
-      <c r="O35" t="s">
-        <v>181</v>
       </c>
       <c r="P35" t="s">
         <v>156</v>
@@ -7374,7 +6877,7 @@
         <v>3</v>
       </c>
       <c r="T35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V35" t="s">
         <v>160</v>
@@ -7383,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="X35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -7401,10 +6904,10 @@
         <v>164</v>
       </c>
       <c r="AF35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH35" t="s">
         <v>167</v>
@@ -7416,16 +6919,16 @@
         <v>164</v>
       </c>
       <c r="AK35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL35" t="s">
         <v>170</v>
       </c>
       <c r="AM35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO35" t="s">
         <v>167</v>
@@ -7449,7 +6952,7 @@
         <v>172</v>
       </c>
       <c r="AV35" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW35" t="s">
         <v>173</v>
@@ -7458,10 +6961,10 @@
         <v>174</v>
       </c>
       <c r="AY35" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="AZ35" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
@@ -7474,9 +6977,6 @@
       <c r="C36" t="s">
         <v>55</v>
       </c>
-      <c r="D36" t="s">
-        <v>335</v>
-      </c>
       <c r="E36">
         <v>100</v>
       </c>
@@ -7490,28 +6990,22 @@
         <v>44598.366863425923</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
-      </c>
-      <c r="L36">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M36">
-        <v>46.7178955078125</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s">
+        <v>179</v>
+      </c>
+      <c r="O36" t="s">
         <v>180</v>
-      </c>
-      <c r="O36" t="s">
-        <v>181</v>
       </c>
       <c r="P36" t="s">
         <v>156</v>
       </c>
       <c r="Q36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R36" t="s">
         <v>158</v>
@@ -7532,25 +7026,25 @@
         <v>2</v>
       </c>
       <c r="X36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y36">
         <v>2</v>
       </c>
       <c r="Z36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC36" t="s">
         <v>165</v>
       </c>
       <c r="AD36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE36" t="s">
         <v>163</v>
       </c>
       <c r="AF36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG36" t="s">
         <v>170</v>
@@ -7589,22 +7083,22 @@
         <v>172</v>
       </c>
       <c r="AU36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV36" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX36" t="s">
         <v>174</v>
       </c>
       <c r="AY36" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="AZ36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
@@ -7617,9 +7111,6 @@
       <c r="C37" t="s">
         <v>55</v>
       </c>
-      <c r="D37" t="s">
-        <v>339</v>
-      </c>
       <c r="E37">
         <v>100</v>
       </c>
@@ -7633,28 +7124,22 @@
         <v>44598.378206018519</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
-      </c>
-      <c r="L37">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M37">
-        <v>46.7178955078125</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s">
+        <v>179</v>
+      </c>
+      <c r="O37" t="s">
         <v>180</v>
-      </c>
-      <c r="O37" t="s">
-        <v>181</v>
       </c>
       <c r="P37" t="s">
         <v>156</v>
       </c>
       <c r="Q37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R37" t="s">
         <v>158</v>
@@ -7663,7 +7148,7 @@
         <v>11</v>
       </c>
       <c r="T37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V37" t="s">
         <v>160</v>
@@ -7672,16 +7157,16 @@
         <v>4</v>
       </c>
       <c r="X37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y37">
         <v>4</v>
       </c>
       <c r="Z37" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA37" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB37">
         <v>3</v>
@@ -7699,22 +7184,22 @@
         <v>164</v>
       </c>
       <c r="AG37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ37" t="s">
         <v>164</v>
       </c>
       <c r="AK37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM37" t="s">
         <v>167</v>
@@ -7723,13 +7208,13 @@
         <v>164</v>
       </c>
       <c r="AO37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR37" t="s">
         <v>171</v>
@@ -7741,22 +7226,22 @@
         <v>172</v>
       </c>
       <c r="AU37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW37" t="s">
         <v>173</v>
       </c>
       <c r="AX37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY37" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="AZ37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
@@ -7769,9 +7254,6 @@
       <c r="C38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" t="s">
-        <v>305</v>
-      </c>
       <c r="E38">
         <v>100</v>
       </c>
@@ -7785,28 +7267,22 @@
         <v>44598.405590277776</v>
       </c>
       <c r="I38" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>344</v>
-      </c>
-      <c r="L38">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M38">
-        <v>46.7178955078125</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s">
+        <v>179</v>
+      </c>
+      <c r="O38" t="s">
         <v>180</v>
-      </c>
-      <c r="O38" t="s">
-        <v>181</v>
       </c>
       <c r="P38" t="s">
         <v>156</v>
       </c>
       <c r="Q38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R38" t="s">
         <v>158</v>
@@ -7827,16 +7303,16 @@
         <v>2</v>
       </c>
       <c r="X38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y38">
         <v>3</v>
       </c>
       <c r="Z38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA38" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB38">
         <v>4</v>
@@ -7899,19 +7375,19 @@
         <v>163</v>
       </c>
       <c r="AV38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW38" t="s">
         <v>173</v>
       </c>
       <c r="AX38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY38" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="AZ38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
@@ -7924,9 +7400,6 @@
       <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="D39" t="s">
-        <v>346</v>
-      </c>
       <c r="E39">
         <v>100</v>
       </c>
@@ -7940,22 +7413,16 @@
         <v>44598.465289351851</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
-      </c>
-      <c r="L39">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M39">
-        <v>46.7178955078125</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s">
+        <v>179</v>
+      </c>
+      <c r="O39" t="s">
         <v>180</v>
-      </c>
-      <c r="O39" t="s">
-        <v>181</v>
       </c>
       <c r="P39" t="s">
         <v>156</v>
@@ -7970,13 +7437,13 @@
         <v>160</v>
       </c>
       <c r="X39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z39" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC39" t="s">
         <v>164</v>
@@ -7994,7 +7461,7 @@
         <v>167</v>
       </c>
       <c r="AJ39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK39" t="s">
         <v>170</v>
@@ -8009,13 +7476,13 @@
         <v>164</v>
       </c>
       <c r="AX39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY39" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="AZ39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
@@ -8028,9 +7495,6 @@
       <c r="C40" t="s">
         <v>55</v>
       </c>
-      <c r="D40" t="s">
-        <v>350</v>
-      </c>
       <c r="E40">
         <v>100</v>
       </c>
@@ -8044,22 +7508,16 @@
         <v>44598.52103009259</v>
       </c>
       <c r="I40" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
-        <v>352</v>
-      </c>
-      <c r="L40">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M40">
-        <v>46.7178955078125</v>
+        <v>319</v>
       </c>
       <c r="N40" t="s">
+        <v>179</v>
+      </c>
+      <c r="O40" t="s">
         <v>180</v>
-      </c>
-      <c r="O40" t="s">
-        <v>181</v>
       </c>
       <c r="P40" t="s">
         <v>156</v>
@@ -8113,7 +7571,7 @@
         <v>167</v>
       </c>
       <c r="AJ40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK40" t="s">
         <v>170</v>
@@ -8149,19 +7607,19 @@
         <v>172</v>
       </c>
       <c r="AV40" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW40" t="s">
         <v>173</v>
       </c>
       <c r="AX40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY40" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="AZ40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
@@ -8174,9 +7632,6 @@
       <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
-        <v>354</v>
-      </c>
       <c r="E41">
         <v>100</v>
       </c>
@@ -8190,22 +7645,16 @@
         <v>44598.648495370369</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
-      </c>
-      <c r="L41">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M41">
-        <v>46.7178955078125</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s">
+        <v>179</v>
+      </c>
+      <c r="O41" t="s">
         <v>180</v>
-      </c>
-      <c r="O41" t="s">
-        <v>181</v>
       </c>
       <c r="P41" t="s">
         <v>156</v>
@@ -8220,13 +7669,13 @@
         <v>161</v>
       </c>
       <c r="V41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X41" t="s">
         <v>161</v>
       </c>
       <c r="Z41" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA41" t="s">
         <v>161</v>
@@ -8235,13 +7684,13 @@
         <v>165</v>
       </c>
       <c r="AD41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG41" t="s">
         <v>168</v>
@@ -8253,7 +7702,7 @@
         <v>168</v>
       </c>
       <c r="AJ41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK41" t="s">
         <v>168</v>
@@ -8289,16 +7738,16 @@
         <v>172</v>
       </c>
       <c r="AV41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX41" t="s">
         <v>174</v>
       </c>
       <c r="AY41" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="AZ41" t="s">
         <v>176</v>
@@ -8327,13 +7776,7 @@
         <v>44598.931064814817</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
-      </c>
-      <c r="L42">
-        <v>35.9609985351562</v>
-      </c>
-      <c r="M42">
-        <v>-78.929100036620994</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s">
         <v>154</v>
@@ -8342,10 +7785,10 @@
         <v>155</v>
       </c>
       <c r="P42" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="AY42" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
@@ -8358,9 +7801,6 @@
       <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="D43" t="s">
-        <v>361</v>
-      </c>
       <c r="E43">
         <v>100</v>
       </c>
@@ -8374,28 +7814,22 @@
         <v>44599.249039351853</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
-      </c>
-      <c r="L43">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M43">
-        <v>46.7178955078125</v>
+        <v>328</v>
       </c>
       <c r="N43" t="s">
+        <v>179</v>
+      </c>
+      <c r="O43" t="s">
         <v>180</v>
-      </c>
-      <c r="O43" t="s">
-        <v>181</v>
       </c>
       <c r="P43" t="s">
         <v>156</v>
       </c>
       <c r="Q43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R43" t="s">
         <v>158</v>
@@ -8416,16 +7850,16 @@
         <v>35</v>
       </c>
       <c r="X43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y43">
         <v>8</v>
       </c>
       <c r="Z43" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB43">
         <v>4</v>
@@ -8443,25 +7877,25 @@
         <v>165</v>
       </c>
       <c r="AG43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ43" t="s">
         <v>164</v>
       </c>
       <c r="AK43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN43" t="s">
         <v>169</v>
@@ -8485,10 +7919,10 @@
         <v>163</v>
       </c>
       <c r="AU43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW43" t="s">
         <v>173</v>
@@ -8497,10 +7931,10 @@
         <v>174</v>
       </c>
       <c r="AY43" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="AZ43" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
@@ -8513,9 +7947,6 @@
       <c r="C44" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
-        <v>365</v>
-      </c>
       <c r="E44">
         <v>100</v>
       </c>
@@ -8529,22 +7960,16 @@
         <v>44600.125057870369</v>
       </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="J44" t="s">
-        <v>367</v>
-      </c>
-      <c r="L44">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M44">
-        <v>46.7178955078125</v>
+        <v>331</v>
       </c>
       <c r="N44" t="s">
+        <v>179</v>
+      </c>
+      <c r="O44" t="s">
         <v>180</v>
-      </c>
-      <c r="O44" t="s">
-        <v>181</v>
       </c>
       <c r="P44" t="s">
         <v>156</v>
@@ -8565,16 +7990,16 @@
         <v>1</v>
       </c>
       <c r="X44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC44" t="s">
         <v>165</v>
       </c>
       <c r="AF44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s">
         <v>170</v>
@@ -8586,7 +8011,7 @@
         <v>170</v>
       </c>
       <c r="AN44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO44" t="s">
         <v>166</v>
@@ -8601,19 +8026,19 @@
         <v>164</v>
       </c>
       <c r="AV44" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW44" t="s">
         <v>173</v>
       </c>
       <c r="AX44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY44" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="AZ44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
@@ -8626,9 +8051,6 @@
       <c r="C45" t="s">
         <v>55</v>
       </c>
-      <c r="D45" t="s">
-        <v>369</v>
-      </c>
       <c r="E45">
         <v>100</v>
       </c>
@@ -8642,40 +8064,34 @@
         <v>44600.128125000003</v>
       </c>
       <c r="I45" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
-      </c>
-      <c r="L45">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M45">
-        <v>46.7178955078125</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s">
+        <v>179</v>
+      </c>
+      <c r="O45" t="s">
         <v>180</v>
-      </c>
-      <c r="O45" t="s">
-        <v>181</v>
       </c>
       <c r="P45" t="s">
         <v>156</v>
       </c>
       <c r="Q45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R45" t="s">
         <v>161</v>
       </c>
       <c r="T45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X45" t="s">
         <v>161</v>
       </c>
       <c r="Z45" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA45" t="s">
         <v>161</v>
@@ -8684,13 +8100,13 @@
         <v>165</v>
       </c>
       <c r="AD45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG45" t="s">
         <v>168</v>
@@ -8714,7 +8130,7 @@
         <v>168</v>
       </c>
       <c r="AN45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO45" t="s">
         <v>170</v>
@@ -8735,16 +8151,16 @@
         <v>163</v>
       </c>
       <c r="AV45" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW45" t="s">
         <v>173</v>
       </c>
       <c r="AX45" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY45" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
       <c r="AZ45" t="s">
         <v>176</v>
@@ -8760,9 +8176,6 @@
       <c r="C46" t="s">
         <v>55</v>
       </c>
-      <c r="D46" t="s">
-        <v>373</v>
-      </c>
       <c r="E46">
         <v>100</v>
       </c>
@@ -8776,28 +8189,22 @@
         <v>44600.3434837963</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
-      </c>
-      <c r="L46">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M46">
-        <v>46.7178955078125</v>
+        <v>337</v>
       </c>
       <c r="N46" t="s">
+        <v>179</v>
+      </c>
+      <c r="O46" t="s">
         <v>180</v>
-      </c>
-      <c r="O46" t="s">
-        <v>181</v>
       </c>
       <c r="P46" t="s">
         <v>156</v>
       </c>
       <c r="Q46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R46" t="s">
         <v>158</v>
@@ -8818,19 +8225,19 @@
         <v>20</v>
       </c>
       <c r="X46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y46">
         <v>23</v>
       </c>
       <c r="Z46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC46" t="s">
         <v>172</v>
       </c>
       <c r="AD46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE46" t="s">
         <v>164</v>
@@ -8848,7 +8255,7 @@
         <v>167</v>
       </c>
       <c r="AJ46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK46" t="s">
         <v>170</v>
@@ -8872,22 +8279,22 @@
         <v>163</v>
       </c>
       <c r="AU46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV46" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW46" t="s">
         <v>173</v>
       </c>
       <c r="AX46" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AY46" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="AZ46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
@@ -8900,9 +8307,6 @@
       <c r="C47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
-        <v>377</v>
-      </c>
       <c r="E47">
         <v>100</v>
       </c>
@@ -8916,28 +8320,22 @@
         <v>44600.432280092595</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
-      </c>
-      <c r="L47">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M47">
-        <v>46.7178955078125</v>
+        <v>340</v>
       </c>
       <c r="N47" t="s">
+        <v>179</v>
+      </c>
+      <c r="O47" t="s">
         <v>180</v>
-      </c>
-      <c r="O47" t="s">
-        <v>181</v>
       </c>
       <c r="P47" t="s">
         <v>156</v>
       </c>
       <c r="Q47" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R47" t="s">
         <v>158</v>
@@ -8958,16 +8356,16 @@
         <v>3</v>
       </c>
       <c r="X47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y47">
         <v>7</v>
       </c>
       <c r="Z47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA47" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB47">
         <v>3</v>
@@ -9006,7 +8404,7 @@
         <v>170</v>
       </c>
       <c r="AN47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO47" t="s">
         <v>168</v>
@@ -9030,16 +8428,16 @@
         <v>164</v>
       </c>
       <c r="AV47" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX47" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY47" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="AZ47" t="s">
         <v>176</v>
@@ -9055,9 +8453,6 @@
       <c r="C48" t="s">
         <v>55</v>
       </c>
-      <c r="D48" t="s">
-        <v>381</v>
-      </c>
       <c r="E48">
         <v>100</v>
       </c>
@@ -9071,28 +8466,22 @@
         <v>44600.539988425924</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
-      </c>
-      <c r="L48">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M48">
-        <v>46.7178955078125</v>
+        <v>343</v>
       </c>
       <c r="N48" t="s">
+        <v>179</v>
+      </c>
+      <c r="O48" t="s">
         <v>180</v>
-      </c>
-      <c r="O48" t="s">
-        <v>181</v>
       </c>
       <c r="P48" t="s">
         <v>156</v>
       </c>
       <c r="Q48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R48" t="s">
         <v>158</v>
@@ -9110,31 +8499,31 @@
         <v>3</v>
       </c>
       <c r="X48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y48">
         <v>2</v>
       </c>
       <c r="Z48" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB48">
         <v>6</v>
       </c>
       <c r="AC48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG48" t="s">
         <v>167</v>
@@ -9149,13 +8538,13 @@
         <v>164</v>
       </c>
       <c r="AK48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM48" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN48" t="s">
         <v>165</v>
@@ -9182,19 +8571,19 @@
         <v>172</v>
       </c>
       <c r="AV48" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW48" t="s">
         <v>173</v>
       </c>
       <c r="AX48" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AY48" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="AZ48" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
@@ -9207,9 +8596,6 @@
       <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" t="s">
-        <v>385</v>
-      </c>
       <c r="E49">
         <v>100</v>
       </c>
@@ -9223,22 +8609,16 @@
         <v>44601.065335648149</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="J49" t="s">
-        <v>387</v>
-      </c>
-      <c r="L49">
-        <v>21.516799926757798</v>
-      </c>
-      <c r="M49">
-        <v>39.219192504882798</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s">
+        <v>179</v>
+      </c>
+      <c r="O49" t="s">
         <v>180</v>
-      </c>
-      <c r="O49" t="s">
-        <v>181</v>
       </c>
       <c r="P49" t="s">
         <v>156</v>
@@ -9250,19 +8630,19 @@
         <v>161</v>
       </c>
       <c r="T49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X49" t="s">
         <v>161</v>
       </c>
       <c r="Z49" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA49" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -9271,13 +8651,13 @@
         <v>172</v>
       </c>
       <c r="AD49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE49" t="s">
         <v>172</v>
       </c>
       <c r="AF49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG49" t="s">
         <v>166</v>
@@ -9316,19 +8696,19 @@
         <v>172</v>
       </c>
       <c r="AV49" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW49" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY49" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="AZ49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
@@ -9341,9 +8721,6 @@
       <c r="C50" t="s">
         <v>55</v>
       </c>
-      <c r="D50" t="s">
-        <v>389</v>
-      </c>
       <c r="E50">
         <v>100</v>
       </c>
@@ -9357,22 +8734,16 @@
         <v>44601.210844907408</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
-      </c>
-      <c r="L50">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M50">
-        <v>46.7178955078125</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s">
+        <v>179</v>
+      </c>
+      <c r="O50" t="s">
         <v>180</v>
-      </c>
-      <c r="O50" t="s">
-        <v>181</v>
       </c>
       <c r="P50" t="s">
         <v>156</v>
@@ -9399,7 +8770,7 @@
         <v>10</v>
       </c>
       <c r="X50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y50">
         <v>10</v>
@@ -9411,13 +8782,13 @@
         <v>165</v>
       </c>
       <c r="AD50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE50" t="s">
         <v>163</v>
       </c>
       <c r="AF50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG50" t="s">
         <v>166</v>
@@ -9429,7 +8800,7 @@
         <v>168</v>
       </c>
       <c r="AJ50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK50" t="s">
         <v>168</v>
@@ -9441,7 +8812,7 @@
         <v>168</v>
       </c>
       <c r="AN50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO50" t="s">
         <v>167</v>
@@ -9462,22 +8833,22 @@
         <v>164</v>
       </c>
       <c r="AU50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV50" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="AW50" t="s">
         <v>173</v>
       </c>
       <c r="AX50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY50" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="AZ50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
@@ -9490,9 +8861,6 @@
       <c r="C51" t="s">
         <v>55</v>
       </c>
-      <c r="D51" t="s">
-        <v>177</v>
-      </c>
       <c r="E51">
         <v>14</v>
       </c>
@@ -9506,13 +8874,13 @@
         <v>44601.235810185186</v>
       </c>
       <c r="I51" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="N51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P51" t="s">
         <v>156</v>
@@ -9524,7 +8892,7 @@
         <v>172</v>
       </c>
       <c r="AY51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ51" t="s">
         <v>176</v>
@@ -9540,9 +8908,6 @@
       <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" t="s">
-        <v>177</v>
-      </c>
       <c r="E52">
         <v>52</v>
       </c>
@@ -9556,13 +8921,13 @@
         <v>44601.236840277779</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="N52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P52" t="s">
         <v>156</v>
@@ -9574,19 +8939,19 @@
         <v>165</v>
       </c>
       <c r="AE52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF52" t="s">
         <v>165</v>
       </c>
       <c r="AR52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AY52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
@@ -9599,9 +8964,6 @@
       <c r="C53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" t="s">
-        <v>395</v>
-      </c>
       <c r="E53">
         <v>100</v>
       </c>
@@ -9615,34 +8977,28 @@
         <v>44601.26085648148</v>
       </c>
       <c r="I53" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="J53" t="s">
-        <v>397</v>
-      </c>
-      <c r="L53">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M53">
-        <v>46.7178955078125</v>
+        <v>354</v>
       </c>
       <c r="N53" t="s">
+        <v>179</v>
+      </c>
+      <c r="O53" t="s">
         <v>180</v>
-      </c>
-      <c r="O53" t="s">
-        <v>181</v>
       </c>
       <c r="P53" t="s">
         <v>156</v>
       </c>
       <c r="Q53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R53" t="s">
         <v>158</v>
       </c>
       <c r="T53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V53" t="s">
         <v>160</v>
@@ -9651,25 +9007,25 @@
         <v>5</v>
       </c>
       <c r="X53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y53">
         <v>4</v>
       </c>
       <c r="Z53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC53" t="s">
         <v>164</v>
       </c>
       <c r="AD53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF53" t="s">
         <v>169</v>
@@ -9687,10 +9043,10 @@
         <v>164</v>
       </c>
       <c r="AK53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM53" t="s">
         <v>167</v>
@@ -9705,7 +9061,7 @@
         <v>168</v>
       </c>
       <c r="AQ53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR53" t="s">
         <v>171</v>
@@ -9720,19 +9076,19 @@
         <v>163</v>
       </c>
       <c r="AV53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW53" t="s">
         <v>173</v>
       </c>
       <c r="AX53" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AY53" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="AZ53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.2">
@@ -9745,9 +9101,6 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="D54" t="s">
-        <v>399</v>
-      </c>
       <c r="E54">
         <v>100</v>
       </c>
@@ -9761,28 +9114,22 @@
         <v>44601.294953703706</v>
       </c>
       <c r="I54" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="J54" t="s">
-        <v>401</v>
-      </c>
-      <c r="L54">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M54">
-        <v>46.7178955078125</v>
+        <v>357</v>
       </c>
       <c r="N54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O54" t="s">
         <v>180</v>
       </c>
-      <c r="O54" t="s">
-        <v>181</v>
-      </c>
       <c r="P54" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="AY54" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.2">
@@ -9795,9 +9142,6 @@
       <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="D55" t="s">
-        <v>403</v>
-      </c>
       <c r="E55">
         <v>100</v>
       </c>
@@ -9811,22 +9155,16 @@
         <v>44601.728206018517</v>
       </c>
       <c r="I55" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="J55" t="s">
-        <v>405</v>
-      </c>
-      <c r="L55">
-        <v>21.516799926757798</v>
-      </c>
-      <c r="M55">
-        <v>39.219192504882798</v>
+        <v>360</v>
       </c>
       <c r="N55" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" t="s">
         <v>180</v>
-      </c>
-      <c r="O55" t="s">
-        <v>181</v>
       </c>
       <c r="P55" t="s">
         <v>156</v>
@@ -9853,16 +9191,16 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y55">
         <v>10</v>
       </c>
       <c r="Z55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC55" t="s">
         <v>163</v>
@@ -9874,7 +9212,7 @@
         <v>172</v>
       </c>
       <c r="AF55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG55" t="s">
         <v>168</v>
@@ -9889,16 +9227,16 @@
         <v>165</v>
       </c>
       <c r="AK55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL55" t="s">
         <v>168</v>
       </c>
       <c r="AM55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO55" t="s">
         <v>167</v>
@@ -9907,7 +9245,7 @@
         <v>170</v>
       </c>
       <c r="AQ55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR55" t="s">
         <v>171</v>
@@ -9922,7 +9260,7 @@
         <v>172</v>
       </c>
       <c r="AV55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW55" t="s">
         <v>173</v>
@@ -9931,10 +9269,10 @@
         <v>174</v>
       </c>
       <c r="AY55" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="AZ55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
@@ -9947,9 +9285,6 @@
       <c r="C56" t="s">
         <v>55</v>
       </c>
-      <c r="D56" t="s">
-        <v>407</v>
-      </c>
       <c r="E56">
         <v>86</v>
       </c>
@@ -9963,10 +9298,10 @@
         <v>44602.10528935185</v>
       </c>
       <c r="I56" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="N56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O56" t="s">
         <v>155</v>
@@ -9975,7 +9310,7 @@
         <v>156</v>
       </c>
       <c r="Q56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R56" t="s">
         <v>158</v>
@@ -9996,28 +9331,28 @@
         <v>3</v>
       </c>
       <c r="X56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y56">
         <v>3</v>
       </c>
       <c r="Z56" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA56" t="s">
         <v>191</v>
       </c>
-      <c r="AA56" t="s">
-        <v>192</v>
-      </c>
       <c r="AC56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s">
         <v>170</v>
@@ -10029,7 +9364,7 @@
         <v>167</v>
       </c>
       <c r="AJ56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK56" t="s">
         <v>170</v>
@@ -10041,7 +9376,7 @@
         <v>170</v>
       </c>
       <c r="AN56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO56" t="s">
         <v>170</v>
@@ -10065,10 +9400,10 @@
         <v>165</v>
       </c>
       <c r="AY56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.2">
@@ -10081,9 +9416,6 @@
       <c r="C57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s">
-        <v>409</v>
-      </c>
       <c r="E57">
         <v>24</v>
       </c>
@@ -10097,16 +9429,16 @@
         <v>44602.116527777776</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s">
+        <v>179</v>
+      </c>
+      <c r="O57" t="s">
         <v>180</v>
-      </c>
-      <c r="O57" t="s">
-        <v>181</v>
       </c>
       <c r="P57" t="s">
         <v>156</v>
@@ -10118,16 +9450,16 @@
         <v>158</v>
       </c>
       <c r="T57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V57" t="s">
         <v>160</v>
       </c>
       <c r="AY57" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="AZ57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.2">
@@ -10140,9 +9472,6 @@
       <c r="C58" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
-        <v>413</v>
-      </c>
       <c r="E58">
         <v>5</v>
       </c>
@@ -10156,25 +9485,25 @@
         <v>44602.226006944446</v>
       </c>
       <c r="I58" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="N58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O58" t="s">
         <v>180</v>
-      </c>
-      <c r="O58" t="s">
-        <v>181</v>
       </c>
       <c r="P58" t="s">
         <v>156</v>
       </c>
       <c r="AY58" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="AZ58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.2">
@@ -10187,9 +9516,6 @@
       <c r="C59" t="s">
         <v>55</v>
       </c>
-      <c r="D59" t="s">
-        <v>417</v>
-      </c>
       <c r="E59">
         <v>52</v>
       </c>
@@ -10203,28 +9529,28 @@
         <v>44602.228506944448</v>
       </c>
       <c r="I59" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="J59" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="N59" t="s">
+        <v>179</v>
+      </c>
+      <c r="O59" t="s">
         <v>180</v>
-      </c>
-      <c r="O59" t="s">
-        <v>181</v>
       </c>
       <c r="P59" t="s">
         <v>156</v>
       </c>
       <c r="Z59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF59" t="s">
         <v>198</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>199</v>
       </c>
       <c r="AG59" t="s">
         <v>167</v>
@@ -10239,10 +9565,10 @@
         <v>167</v>
       </c>
       <c r="AY59" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="AZ59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
@@ -10255,9 +9581,6 @@
       <c r="C60" t="s">
         <v>55</v>
       </c>
-      <c r="D60" t="s">
-        <v>421</v>
-      </c>
       <c r="E60">
         <v>14</v>
       </c>
@@ -10271,22 +9594,22 @@
         <v>44602.237361111111</v>
       </c>
       <c r="I60" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="J60" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="N60" t="s">
+        <v>179</v>
+      </c>
+      <c r="O60" t="s">
         <v>180</v>
-      </c>
-      <c r="O60" t="s">
-        <v>181</v>
       </c>
       <c r="P60" t="s">
         <v>156</v>
       </c>
       <c r="AC60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD60" t="s">
         <v>163</v>
@@ -10295,7 +9618,7 @@
         <v>165</v>
       </c>
       <c r="AY60" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="AZ60" t="s">
         <v>176</v>
@@ -10311,9 +9634,6 @@
       <c r="C61" t="s">
         <v>55</v>
       </c>
-      <c r="D61" t="s">
-        <v>425</v>
-      </c>
       <c r="E61">
         <v>24</v>
       </c>
@@ -10327,16 +9647,16 @@
         <v>44602.247106481482</v>
       </c>
       <c r="I61" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="J61" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s">
+        <v>179</v>
+      </c>
+      <c r="O61" t="s">
         <v>180</v>
-      </c>
-      <c r="O61" t="s">
-        <v>181</v>
       </c>
       <c r="P61" t="s">
         <v>156</v>
@@ -10354,10 +9674,10 @@
         <v>172</v>
       </c>
       <c r="AY61" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AZ61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.2">
@@ -10370,9 +9690,6 @@
       <c r="C62" t="s">
         <v>55</v>
       </c>
-      <c r="D62" t="s">
-        <v>429</v>
-      </c>
       <c r="E62">
         <v>5</v>
       </c>
@@ -10386,16 +9703,16 @@
         <v>44602.467743055553</v>
       </c>
       <c r="I62" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="J62" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="N62" t="s">
+        <v>179</v>
+      </c>
+      <c r="O62" t="s">
         <v>180</v>
-      </c>
-      <c r="O62" t="s">
-        <v>181</v>
       </c>
       <c r="P62" t="s">
         <v>156</v>
@@ -10404,10 +9721,10 @@
         <v>157</v>
       </c>
       <c r="AY62" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="AZ62" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.2">
@@ -10420,9 +9737,6 @@
       <c r="C63" t="s">
         <v>55</v>
       </c>
-      <c r="D63" t="s">
-        <v>433</v>
-      </c>
       <c r="E63">
         <v>19</v>
       </c>
@@ -10436,16 +9750,16 @@
         <v>44605.088969907411</v>
       </c>
       <c r="I63" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="J63" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="N63" t="s">
+        <v>179</v>
+      </c>
+      <c r="O63" t="s">
         <v>180</v>
-      </c>
-      <c r="O63" t="s">
-        <v>181</v>
       </c>
       <c r="P63" t="s">
         <v>156</v>
@@ -10454,16 +9768,16 @@
         <v>157</v>
       </c>
       <c r="Z63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA63" t="s">
         <v>161</v>
       </c>
       <c r="AY63" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="AZ63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.2">
@@ -10476,9 +9790,6 @@
       <c r="C64" t="s">
         <v>55</v>
       </c>
-      <c r="D64" t="s">
-        <v>437</v>
-      </c>
       <c r="E64">
         <v>5</v>
       </c>
@@ -10492,28 +9803,28 @@
         <v>44605.172175925924</v>
       </c>
       <c r="I64" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="J64" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="N64" t="s">
+        <v>179</v>
+      </c>
+      <c r="O64" t="s">
         <v>180</v>
-      </c>
-      <c r="O64" t="s">
-        <v>181</v>
       </c>
       <c r="P64" t="s">
         <v>156</v>
       </c>
       <c r="Q64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY64" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="AZ64" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.2">
@@ -10526,9 +9837,6 @@
       <c r="C65" t="s">
         <v>55</v>
       </c>
-      <c r="D65" t="s">
-        <v>441</v>
-      </c>
       <c r="E65">
         <v>38</v>
       </c>
@@ -10542,16 +9850,16 @@
         <v>44605.293078703704</v>
       </c>
       <c r="I65" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="J65" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="N65" t="s">
+        <v>179</v>
+      </c>
+      <c r="O65" t="s">
         <v>180</v>
-      </c>
-      <c r="O65" t="s">
-        <v>181</v>
       </c>
       <c r="P65" t="s">
         <v>156</v>
@@ -10566,7 +9874,7 @@
         <v>2</v>
       </c>
       <c r="T65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V65" t="s">
         <v>160</v>
@@ -10575,22 +9883,22 @@
         <v>3</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y65">
         <v>3</v>
       </c>
       <c r="Z65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA65" t="s">
         <v>161</v>
       </c>
       <c r="AY65" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="AZ65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.2">
@@ -10603,9 +9911,6 @@
       <c r="C66" t="s">
         <v>55</v>
       </c>
-      <c r="D66" t="s">
-        <v>445</v>
-      </c>
       <c r="E66">
         <v>10</v>
       </c>
@@ -10619,28 +9924,28 @@
         <v>44607.123113425929</v>
       </c>
       <c r="I66" t="s">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="J66" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="N66" t="s">
+        <v>179</v>
+      </c>
+      <c r="O66" t="s">
         <v>180</v>
-      </c>
-      <c r="O66" t="s">
-        <v>181</v>
       </c>
       <c r="P66" t="s">
         <v>156</v>
       </c>
       <c r="Z66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AY66" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
       <c r="AZ66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.2">
@@ -10653,9 +9958,6 @@
       <c r="C67" t="s">
         <v>55</v>
       </c>
-      <c r="D67" t="s">
-        <v>449</v>
-      </c>
       <c r="E67">
         <v>100</v>
       </c>
@@ -10669,22 +9971,16 @@
         <v>44608.199421296296</v>
       </c>
       <c r="I67" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="J67" t="s">
-        <v>451</v>
-      </c>
-      <c r="L67">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M67">
-        <v>46.7178955078125</v>
+        <v>394</v>
       </c>
       <c r="N67" t="s">
+        <v>179</v>
+      </c>
+      <c r="O67" t="s">
         <v>180</v>
-      </c>
-      <c r="O67" t="s">
-        <v>181</v>
       </c>
       <c r="P67" t="s">
         <v>156</v>
@@ -10696,16 +9992,16 @@
         <v>158</v>
       </c>
       <c r="T67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V67" t="s">
         <v>160</v>
       </c>
       <c r="X67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Z67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC67" t="s">
         <v>163</v>
@@ -10720,13 +10016,13 @@
         <v>169</v>
       </c>
       <c r="AG67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ67" t="s">
         <v>169</v>
@@ -10741,7 +10037,7 @@
         <v>166</v>
       </c>
       <c r="AN67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO67" t="s">
         <v>166</v>
@@ -10762,19 +10058,19 @@
         <v>172</v>
       </c>
       <c r="AV67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AW67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AX67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY67" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="AZ67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.2">
@@ -10787,9 +10083,6 @@
       <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D68" t="s">
-        <v>453</v>
-      </c>
       <c r="E68">
         <v>100</v>
       </c>
@@ -10803,22 +10096,16 @@
         <v>44608.237627314818</v>
       </c>
       <c r="I68" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
-      </c>
-      <c r="L68">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M68">
-        <v>46.7178955078125</v>
+        <v>397</v>
       </c>
       <c r="N68" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" t="s">
         <v>180</v>
-      </c>
-      <c r="O68" t="s">
-        <v>181</v>
       </c>
       <c r="P68" t="s">
         <v>156</v>
@@ -10833,7 +10120,7 @@
         <v>3</v>
       </c>
       <c r="T68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V68" t="s">
         <v>160</v>
@@ -10842,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="X68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y68">
         <v>1</v>
@@ -10851,13 +10138,13 @@
         <v>162</v>
       </c>
       <c r="AC68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD68" t="s">
         <v>165</v>
       </c>
       <c r="AE68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF68" t="s">
         <v>169</v>
@@ -10866,7 +10153,7 @@
         <v>168</v>
       </c>
       <c r="AJ68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL68" t="s">
         <v>167</v>
@@ -10875,7 +10162,7 @@
         <v>168</v>
       </c>
       <c r="AN68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO68" t="s">
         <v>168</v>
@@ -10896,22 +10183,22 @@
         <v>164</v>
       </c>
       <c r="AU68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV68" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW68" t="s">
         <v>173</v>
       </c>
       <c r="AX68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY68" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="AZ68" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.2">
@@ -10924,9 +10211,6 @@
       <c r="C69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" t="s">
-        <v>457</v>
-      </c>
       <c r="E69">
         <v>100</v>
       </c>
@@ -10940,28 +10224,22 @@
         <v>44608.331956018519</v>
       </c>
       <c r="I69" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="J69" t="s">
-        <v>459</v>
-      </c>
-      <c r="L69">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M69">
-        <v>46.7178955078125</v>
+        <v>400</v>
       </c>
       <c r="N69" t="s">
+        <v>179</v>
+      </c>
+      <c r="O69" t="s">
         <v>180</v>
       </c>
-      <c r="O69" t="s">
-        <v>181</v>
-      </c>
       <c r="P69" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="AY69" t="s">
-        <v>460</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.2">
@@ -10974,9 +10252,6 @@
       <c r="C70" t="s">
         <v>55</v>
       </c>
-      <c r="D70" t="s">
-        <v>461</v>
-      </c>
       <c r="E70">
         <v>100</v>
       </c>
@@ -10990,22 +10265,16 @@
         <v>44608.58390046296</v>
       </c>
       <c r="I70" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="J70" t="s">
-        <v>463</v>
-      </c>
-      <c r="L70">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M70">
-        <v>46.7178955078125</v>
+        <v>403</v>
       </c>
       <c r="N70" t="s">
+        <v>179</v>
+      </c>
+      <c r="O70" t="s">
         <v>180</v>
-      </c>
-      <c r="O70" t="s">
-        <v>181</v>
       </c>
       <c r="P70" t="s">
         <v>156</v>
@@ -11017,13 +10286,13 @@
         <v>161</v>
       </c>
       <c r="V70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X70" t="s">
         <v>161</v>
       </c>
       <c r="Z70" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="AC70" t="s">
         <v>172</v>
@@ -11047,7 +10316,7 @@
         <v>168</v>
       </c>
       <c r="AJ70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK70" t="s">
         <v>168</v>
@@ -11071,7 +10340,7 @@
         <v>168</v>
       </c>
       <c r="AR70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AT70" t="s">
         <v>172</v>
@@ -11080,19 +10349,19 @@
         <v>165</v>
       </c>
       <c r="AV70" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW70" t="s">
         <v>173</v>
       </c>
       <c r="AX70" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="AY70" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="AZ70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.2">
@@ -11105,9 +10374,6 @@
       <c r="C71" t="s">
         <v>55</v>
       </c>
-      <c r="D71" t="s">
-        <v>466</v>
-      </c>
       <c r="E71">
         <v>100</v>
       </c>
@@ -11121,22 +10387,16 @@
         <v>44609.875775462962</v>
       </c>
       <c r="I71" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
-      </c>
-      <c r="L71">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M71">
-        <v>46.7178955078125</v>
+        <v>407</v>
       </c>
       <c r="N71" t="s">
+        <v>179</v>
+      </c>
+      <c r="O71" t="s">
         <v>180</v>
-      </c>
-      <c r="O71" t="s">
-        <v>181</v>
       </c>
       <c r="P71" t="s">
         <v>156</v>
@@ -11148,28 +10408,28 @@
         <v>161</v>
       </c>
       <c r="V71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X71" t="s">
         <v>161</v>
       </c>
       <c r="Z71" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AY71" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="AZ71" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.2">
@@ -11182,9 +10442,6 @@
       <c r="C72" t="s">
         <v>55</v>
       </c>
-      <c r="D72" t="s">
-        <v>470</v>
-      </c>
       <c r="E72">
         <v>100</v>
       </c>
@@ -11198,22 +10455,16 @@
         <v>44612.271898148145</v>
       </c>
       <c r="I72" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="J72" t="s">
-        <v>472</v>
-      </c>
-      <c r="L72">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M72">
-        <v>46.7178955078125</v>
+        <v>410</v>
       </c>
       <c r="N72" t="s">
+        <v>179</v>
+      </c>
+      <c r="O72" t="s">
         <v>180</v>
-      </c>
-      <c r="O72" t="s">
-        <v>181</v>
       </c>
       <c r="P72" t="s">
         <v>156</v>
@@ -11240,28 +10491,28 @@
         <v>2</v>
       </c>
       <c r="X72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y72">
         <v>2</v>
       </c>
       <c r="Z72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC72" t="s">
         <v>172</v>
       </c>
       <c r="AD72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE72" t="s">
         <v>163</v>
       </c>
       <c r="AF72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG72" t="s">
         <v>168</v>
@@ -11273,7 +10524,7 @@
         <v>168</v>
       </c>
       <c r="AJ72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK72" t="s">
         <v>167</v>
@@ -11285,7 +10536,7 @@
         <v>167</v>
       </c>
       <c r="AN72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO72" t="s">
         <v>170</v>
@@ -11309,19 +10560,19 @@
         <v>165</v>
       </c>
       <c r="AV72" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY72" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="AZ72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.2">
@@ -11347,25 +10598,19 @@
         <v>44618.596689814818</v>
       </c>
       <c r="I73" t="s">
-        <v>474</v>
-      </c>
-      <c r="L73">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M73">
-        <v>46.7178955078125</v>
+        <v>412</v>
       </c>
       <c r="N73" t="s">
         <v>154</v>
       </c>
       <c r="O73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P73" t="s">
         <v>156</v>
       </c>
       <c r="Q73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R73" t="s">
         <v>158</v>
@@ -11386,16 +10631,16 @@
         <v>3</v>
       </c>
       <c r="X73" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y73">
         <v>4</v>
       </c>
       <c r="Z73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA73" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB73">
         <v>20</v>
@@ -11407,31 +10652,31 @@
         <v>164</v>
       </c>
       <c r="AE73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF73" t="s">
         <v>164</v>
       </c>
       <c r="AG73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH73" t="s">
         <v>167</v>
       </c>
       <c r="AI73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ73" t="s">
         <v>164</v>
       </c>
       <c r="AK73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL73" t="s">
         <v>170</v>
       </c>
       <c r="AM73" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN73" t="s">
         <v>169</v>
@@ -11452,16 +10697,16 @@
         <v>30</v>
       </c>
       <c r="AT73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AU73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV73" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX73" t="s">
         <v>174</v>
@@ -11470,7 +10715,7 @@
         <v>175</v>
       </c>
       <c r="AZ73" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.2">
@@ -11483,9 +10728,6 @@
       <c r="C74" t="s">
         <v>55</v>
       </c>
-      <c r="D74" t="s">
-        <v>475</v>
-      </c>
       <c r="E74">
         <v>14</v>
       </c>
@@ -11499,16 +10741,16 @@
         <v>44619.251574074071</v>
       </c>
       <c r="I74" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="J74" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="N74" t="s">
+        <v>179</v>
+      </c>
+      <c r="O74" t="s">
         <v>180</v>
-      </c>
-      <c r="O74" t="s">
-        <v>181</v>
       </c>
       <c r="P74" t="s">
         <v>156</v>
@@ -11520,10 +10762,10 @@
         <v>158</v>
       </c>
       <c r="AY74" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="AZ74" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.2">
@@ -11536,9 +10778,6 @@
       <c r="C75" t="s">
         <v>55</v>
       </c>
-      <c r="D75" t="s">
-        <v>479</v>
-      </c>
       <c r="E75">
         <v>100</v>
       </c>
@@ -11552,22 +10791,16 @@
         <v>44619.587581018517</v>
       </c>
       <c r="I75" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="J75" t="s">
-        <v>481</v>
-      </c>
-      <c r="L75">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M75">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N75" t="s">
+        <v>179</v>
+      </c>
+      <c r="O75" t="s">
         <v>180</v>
-      </c>
-      <c r="O75" t="s">
-        <v>181</v>
       </c>
       <c r="P75" t="s">
         <v>156</v>
@@ -11594,16 +10827,16 @@
         <v>2</v>
       </c>
       <c r="X75" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y75">
         <v>3</v>
       </c>
       <c r="Z75" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA75" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB75">
         <v>4</v>
@@ -11615,7 +10848,7 @@
         <v>165</v>
       </c>
       <c r="AE75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF75" t="s">
         <v>169</v>
@@ -11633,7 +10866,7 @@
         <v>169</v>
       </c>
       <c r="AK75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL75" t="s">
         <v>168</v>
@@ -11666,7 +10899,7 @@
         <v>164</v>
       </c>
       <c r="AV75" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW75" t="s">
         <v>173</v>
@@ -11675,10 +10908,10 @@
         <v>174</v>
       </c>
       <c r="AY75" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="AZ75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.2">
@@ -11691,9 +10924,6 @@
       <c r="C76" t="s">
         <v>55</v>
       </c>
-      <c r="D76" t="s">
-        <v>479</v>
-      </c>
       <c r="E76">
         <v>100</v>
       </c>
@@ -11707,22 +10937,16 @@
         <v>44619.603043981479</v>
       </c>
       <c r="I76" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="J76" t="s">
-        <v>481</v>
-      </c>
-      <c r="L76">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M76">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N76" t="s">
+        <v>179</v>
+      </c>
+      <c r="O76" t="s">
         <v>180</v>
-      </c>
-      <c r="O76" t="s">
-        <v>181</v>
       </c>
       <c r="P76" t="s">
         <v>156</v>
@@ -11749,16 +10973,16 @@
         <v>2</v>
       </c>
       <c r="X76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y76">
         <v>0</v>
       </c>
       <c r="Z76" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA76" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -11767,7 +10991,7 @@
         <v>163</v>
       </c>
       <c r="AD76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE76" t="s">
         <v>164</v>
@@ -11782,7 +11006,7 @@
         <v>170</v>
       </c>
       <c r="AI76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ76" t="s">
         <v>169</v>
@@ -11821,7 +11045,7 @@
         <v>163</v>
       </c>
       <c r="AV76" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW76" t="s">
         <v>173</v>
@@ -11830,10 +11054,10 @@
         <v>174</v>
       </c>
       <c r="AY76" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="AZ76" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.2">
@@ -11846,9 +11070,6 @@
       <c r="C77" t="s">
         <v>55</v>
       </c>
-      <c r="D77" t="s">
-        <v>479</v>
-      </c>
       <c r="E77">
         <v>100</v>
       </c>
@@ -11862,22 +11083,16 @@
         <v>44619.618692129632</v>
       </c>
       <c r="I77" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="J77" t="s">
-        <v>481</v>
-      </c>
-      <c r="L77">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M77">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N77" t="s">
+        <v>179</v>
+      </c>
+      <c r="O77" t="s">
         <v>180</v>
-      </c>
-      <c r="O77" t="s">
-        <v>181</v>
       </c>
       <c r="P77" t="s">
         <v>156</v>
@@ -11892,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="T77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V77" t="s">
         <v>160</v>
@@ -11901,31 +11116,31 @@
         <v>6</v>
       </c>
       <c r="X77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y77">
         <v>2</v>
       </c>
       <c r="Z77" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA77" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB77">
         <v>3</v>
       </c>
       <c r="AC77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG77" t="s">
         <v>167</v>
@@ -11940,7 +11155,7 @@
         <v>164</v>
       </c>
       <c r="AK77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL77" t="s">
         <v>170</v>
@@ -11970,10 +11185,10 @@
         <v>164</v>
       </c>
       <c r="AU77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV77" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW77" t="s">
         <v>173</v>
@@ -11982,10 +11197,10 @@
         <v>174</v>
       </c>
       <c r="AY77" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="AZ77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.2">
@@ -11998,9 +11213,6 @@
       <c r="C78" t="s">
         <v>55</v>
       </c>
-      <c r="D78" t="s">
-        <v>487</v>
-      </c>
       <c r="E78">
         <v>100</v>
       </c>
@@ -12014,22 +11226,16 @@
         <v>44620.518287037034</v>
       </c>
       <c r="I78" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="J78" t="s">
-        <v>481</v>
-      </c>
-      <c r="L78">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M78">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N78" t="s">
+        <v>179</v>
+      </c>
+      <c r="O78" t="s">
         <v>180</v>
-      </c>
-      <c r="O78" t="s">
-        <v>181</v>
       </c>
       <c r="P78" t="s">
         <v>156</v>
@@ -12044,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V78" t="s">
         <v>160</v>
@@ -12053,16 +11259,16 @@
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y78">
         <v>0</v>
       </c>
       <c r="Z78" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA78" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB78">
         <v>2</v>
@@ -12077,7 +11283,7 @@
         <v>164</v>
       </c>
       <c r="AF78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG78" t="s">
         <v>168</v>
@@ -12101,16 +11307,16 @@
         <v>167</v>
       </c>
       <c r="AN78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP78" t="s">
         <v>168</v>
       </c>
       <c r="AQ78" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR78" t="s">
         <v>171</v>
@@ -12125,7 +11331,7 @@
         <v>163</v>
       </c>
       <c r="AV78" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW78" t="s">
         <v>173</v>
@@ -12134,10 +11340,10 @@
         <v>174</v>
       </c>
       <c r="AY78" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="AZ78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.2">
@@ -12150,9 +11356,6 @@
       <c r="C79" t="s">
         <v>55</v>
       </c>
-      <c r="D79" t="s">
-        <v>487</v>
-      </c>
       <c r="E79">
         <v>100</v>
       </c>
@@ -12166,22 +11369,16 @@
         <v>44620.560543981483</v>
       </c>
       <c r="I79" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="J79" t="s">
-        <v>481</v>
-      </c>
-      <c r="L79">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M79">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N79" t="s">
+        <v>179</v>
+      </c>
+      <c r="O79" t="s">
         <v>180</v>
-      </c>
-      <c r="O79" t="s">
-        <v>181</v>
       </c>
       <c r="P79" t="s">
         <v>156</v>
@@ -12208,16 +11405,16 @@
         <v>3</v>
       </c>
       <c r="X79" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y79">
         <v>6</v>
       </c>
       <c r="Z79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD79" t="s">
         <v>164</v>
@@ -12229,25 +11426,25 @@
         <v>164</v>
       </c>
       <c r="AG79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH79" t="s">
         <v>170</v>
       </c>
       <c r="AI79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ79" t="s">
         <v>164</v>
       </c>
       <c r="AK79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL79" t="s">
         <v>170</v>
       </c>
       <c r="AM79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN79" t="s">
         <v>165</v>
@@ -12271,22 +11468,22 @@
         <v>163</v>
       </c>
       <c r="AU79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX79" t="s">
         <v>174</v>
       </c>
       <c r="AY79" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="AZ79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.2">
@@ -12299,9 +11496,6 @@
       <c r="C80" t="s">
         <v>55</v>
       </c>
-      <c r="D80" t="s">
-        <v>487</v>
-      </c>
       <c r="E80">
         <v>100</v>
       </c>
@@ -12315,22 +11509,16 @@
         <v>44622.369895833333</v>
       </c>
       <c r="I80" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="J80" t="s">
-        <v>481</v>
-      </c>
-      <c r="L80">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M80">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N80" t="s">
+        <v>179</v>
+      </c>
+      <c r="O80" t="s">
         <v>180</v>
-      </c>
-      <c r="O80" t="s">
-        <v>181</v>
       </c>
       <c r="P80" t="s">
         <v>156</v>
@@ -12357,16 +11545,16 @@
         <v>5</v>
       </c>
       <c r="X80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y80">
         <v>4</v>
       </c>
       <c r="Z80" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA80" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB80">
         <v>4</v>
@@ -12375,7 +11563,7 @@
         <v>164</v>
       </c>
       <c r="AD80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE80" t="s">
         <v>163</v>
@@ -12396,7 +11584,7 @@
         <v>165</v>
       </c>
       <c r="AL80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM80" t="s">
         <v>170</v>
@@ -12405,13 +11593,13 @@
         <v>164</v>
       </c>
       <c r="AO80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP80" t="s">
         <v>170</v>
       </c>
       <c r="AQ80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR80" t="s">
         <v>171</v>
@@ -12426,7 +11614,7 @@
         <v>164</v>
       </c>
       <c r="AV80" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW80" t="s">
         <v>173</v>
@@ -12435,10 +11623,10 @@
         <v>174</v>
       </c>
       <c r="AY80" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="AZ80" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.2">
@@ -12451,9 +11639,6 @@
       <c r="C81" t="s">
         <v>55</v>
       </c>
-      <c r="D81" t="s">
-        <v>487</v>
-      </c>
       <c r="E81">
         <v>100</v>
       </c>
@@ -12467,22 +11652,16 @@
         <v>44622.380219907405</v>
       </c>
       <c r="I81" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="J81" t="s">
-        <v>481</v>
-      </c>
-      <c r="L81">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M81">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N81" t="s">
+        <v>179</v>
+      </c>
+      <c r="O81" t="s">
         <v>180</v>
-      </c>
-      <c r="O81" t="s">
-        <v>181</v>
       </c>
       <c r="P81" t="s">
         <v>156</v>
@@ -12509,7 +11688,7 @@
         <v>7</v>
       </c>
       <c r="X81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y81">
         <v>14</v>
@@ -12551,7 +11730,7 @@
         <v>168</v>
       </c>
       <c r="AN81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO81" t="s">
         <v>170</v>
@@ -12575,7 +11754,7 @@
         <v>163</v>
       </c>
       <c r="AV81" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW81" t="s">
         <v>173</v>
@@ -12584,10 +11763,10 @@
         <v>174</v>
       </c>
       <c r="AY81" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="AZ81" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.2">
@@ -12600,9 +11779,6 @@
       <c r="C82" t="s">
         <v>55</v>
       </c>
-      <c r="D82" t="s">
-        <v>487</v>
-      </c>
       <c r="E82">
         <v>100</v>
       </c>
@@ -12616,22 +11792,16 @@
         <v>44622.397013888891</v>
       </c>
       <c r="I82" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="J82" t="s">
-        <v>481</v>
-      </c>
-      <c r="L82">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M82">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N82" t="s">
+        <v>179</v>
+      </c>
+      <c r="O82" t="s">
         <v>180</v>
-      </c>
-      <c r="O82" t="s">
-        <v>181</v>
       </c>
       <c r="P82" t="s">
         <v>156</v>
@@ -12646,7 +11816,7 @@
         <v>7</v>
       </c>
       <c r="T82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V82" t="s">
         <v>160</v>
@@ -12655,28 +11825,28 @@
         <v>3</v>
       </c>
       <c r="X82" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y82">
         <v>4</v>
       </c>
       <c r="Z82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA82" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB82">
         <v>3</v>
       </c>
       <c r="AC82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF82" t="s">
         <v>164</v>
@@ -12685,34 +11855,34 @@
         <v>166</v>
       </c>
       <c r="AH82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ82" t="s">
         <v>164</v>
       </c>
       <c r="AK82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN82" t="s">
         <v>164</v>
       </c>
       <c r="AO82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR82" t="s">
         <v>171</v>
@@ -12727,7 +11897,7 @@
         <v>164</v>
       </c>
       <c r="AV82" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW82" t="s">
         <v>173</v>
@@ -12736,7 +11906,7 @@
         <v>174</v>
       </c>
       <c r="AY82" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="AZ82" t="s">
         <v>176</v>
@@ -12752,9 +11922,6 @@
       <c r="C83" t="s">
         <v>55</v>
       </c>
-      <c r="D83" t="s">
-        <v>487</v>
-      </c>
       <c r="E83">
         <v>100</v>
       </c>
@@ -12768,22 +11935,16 @@
         <v>44622.406574074077</v>
       </c>
       <c r="I83" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>481</v>
-      </c>
-      <c r="L83">
-        <v>24.656906127929599</v>
-      </c>
-      <c r="M83">
-        <v>46.7178955078125</v>
+        <v>417</v>
       </c>
       <c r="N83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O83" t="s">
         <v>180</v>
-      </c>
-      <c r="O83" t="s">
-        <v>181</v>
       </c>
       <c r="P83" t="s">
         <v>156</v>
@@ -12810,22 +11971,22 @@
         <v>4</v>
       </c>
       <c r="X83" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y83">
         <v>12</v>
       </c>
       <c r="Z83" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA83" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB83">
         <v>6</v>
       </c>
       <c r="AC83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD83" t="s">
         <v>164</v>
@@ -12840,7 +12001,7 @@
         <v>168</v>
       </c>
       <c r="AH83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI83" t="s">
         <v>168</v>
@@ -12849,13 +12010,13 @@
         <v>164</v>
       </c>
       <c r="AK83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN83" t="s">
         <v>164</v>
@@ -12876,13 +12037,13 @@
         <v>26</v>
       </c>
       <c r="AT83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AU83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV83" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW83" t="s">
         <v>173</v>
@@ -12891,10 +12052,10 @@
         <v>174</v>
       </c>
       <c r="AY83" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="AZ83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.2">
@@ -12907,9 +12068,6 @@
       <c r="C84" t="s">
         <v>55</v>
       </c>
-      <c r="D84" t="s">
-        <v>500</v>
-      </c>
       <c r="E84">
         <v>100</v>
       </c>
@@ -12923,25 +12081,19 @@
         <v>44835.618611111109</v>
       </c>
       <c r="I84" t="s">
-        <v>501</v>
-      </c>
-      <c r="L84">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M84">
-        <v>46.7224</v>
+        <v>435</v>
       </c>
       <c r="N84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P84" t="s">
         <v>156</v>
       </c>
       <c r="Q84" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R84" t="s">
         <v>158</v>
@@ -12962,16 +12114,16 @@
         <v>5</v>
       </c>
       <c r="X84" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y84">
         <v>10</v>
       </c>
       <c r="Z84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA84" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB84">
         <v>5</v>
@@ -12986,7 +12138,7 @@
         <v>172</v>
       </c>
       <c r="AF84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG84" t="s">
         <v>168</v>
@@ -12998,7 +12150,7 @@
         <v>167</v>
       </c>
       <c r="AJ84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK84" t="s">
         <v>170</v>
@@ -13010,7 +12162,7 @@
         <v>167</v>
       </c>
       <c r="AN84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO84" t="s">
         <v>168</v>
@@ -13034,19 +12186,19 @@
         <v>165</v>
       </c>
       <c r="AV84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AW84" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY84" t="s">
         <v>193</v>
       </c>
-      <c r="AX84" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY84" t="s">
+      <c r="AZ84" t="s">
         <v>194</v>
-      </c>
-      <c r="AZ84" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.2">
@@ -13059,9 +12211,6 @@
       <c r="C85" t="s">
         <v>55</v>
       </c>
-      <c r="D85" t="s">
-        <v>502</v>
-      </c>
       <c r="E85">
         <v>100</v>
       </c>
@@ -13075,19 +12224,13 @@
         <v>44835.745729166665</v>
       </c>
       <c r="I85" t="s">
-        <v>503</v>
-      </c>
-      <c r="L85">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M85">
-        <v>46.7224</v>
+        <v>436</v>
       </c>
       <c r="N85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P85" t="s">
         <v>156</v>
@@ -13114,16 +12257,16 @@
         <v>5</v>
       </c>
       <c r="X85" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y85">
         <v>8</v>
       </c>
       <c r="Z85" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC85" t="s">
         <v>163</v>
@@ -13135,7 +12278,7 @@
         <v>172</v>
       </c>
       <c r="AF85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG85" t="s">
         <v>168</v>
@@ -13147,7 +12290,7 @@
         <v>168</v>
       </c>
       <c r="AJ85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK85" t="s">
         <v>167</v>
@@ -13183,19 +12326,19 @@
         <v>164</v>
       </c>
       <c r="AV85" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW85" t="s">
         <v>173</v>
       </c>
       <c r="AX85" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AY85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.2">
@@ -13208,9 +12351,6 @@
       <c r="C86" t="s">
         <v>55</v>
       </c>
-      <c r="D86" t="s">
-        <v>502</v>
-      </c>
       <c r="E86">
         <v>100</v>
       </c>
@@ -13224,19 +12364,13 @@
         <v>44835.76122685185</v>
       </c>
       <c r="I86" t="s">
-        <v>504</v>
-      </c>
-      <c r="L86">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M86">
-        <v>46.7224</v>
+        <v>437</v>
       </c>
       <c r="N86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P86" t="s">
         <v>156</v>
@@ -13263,22 +12397,22 @@
         <v>25</v>
       </c>
       <c r="X86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y86">
         <v>25</v>
       </c>
       <c r="Z86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA86" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB86">
         <v>4</v>
       </c>
       <c r="AC86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD86" t="s">
         <v>164</v>
@@ -13287,10 +12421,10 @@
         <v>165</v>
       </c>
       <c r="AF86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH86" t="s">
         <v>166</v>
@@ -13299,10 +12433,10 @@
         <v>167</v>
       </c>
       <c r="AJ86" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL86" t="s">
         <v>168</v>
@@ -13314,13 +12448,13 @@
         <v>164</v>
       </c>
       <c r="AO86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AQ86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR86" t="s">
         <v>171</v>
@@ -13332,10 +12466,10 @@
         <v>164</v>
       </c>
       <c r="AU86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV86" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW86" t="s">
         <v>173</v>
@@ -13344,10 +12478,10 @@
         <v>174</v>
       </c>
       <c r="AY86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.2">
@@ -13360,9 +12494,6 @@
       <c r="C87" t="s">
         <v>55</v>
       </c>
-      <c r="D87" t="s">
-        <v>502</v>
-      </c>
       <c r="E87">
         <v>100</v>
       </c>
@@ -13376,25 +12507,19 @@
         <v>44835.780324074076</v>
       </c>
       <c r="I87" t="s">
-        <v>505</v>
-      </c>
-      <c r="L87">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M87">
-        <v>46.7224</v>
+        <v>438</v>
       </c>
       <c r="N87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P87" t="s">
         <v>156</v>
       </c>
       <c r="Q87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R87" t="s">
         <v>158</v>
@@ -13415,16 +12540,16 @@
         <v>7</v>
       </c>
       <c r="X87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y87">
         <v>9</v>
       </c>
       <c r="Z87" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA87" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB87">
         <v>2</v>
@@ -13433,16 +12558,16 @@
         <v>163</v>
       </c>
       <c r="AD87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH87" t="s">
         <v>168</v>
@@ -13454,19 +12579,19 @@
         <v>164</v>
       </c>
       <c r="AK87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL87" t="s">
         <v>167</v>
       </c>
       <c r="AM87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AO87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP87" t="s">
         <v>167</v>
@@ -13484,10 +12609,10 @@
         <v>164</v>
       </c>
       <c r="AU87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV87" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW87" t="s">
         <v>173</v>
@@ -13496,10 +12621,10 @@
         <v>174</v>
       </c>
       <c r="AY87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.2">
@@ -13512,9 +12637,6 @@
       <c r="C88" t="s">
         <v>55</v>
       </c>
-      <c r="D88" t="s">
-        <v>506</v>
-      </c>
       <c r="E88">
         <v>100</v>
       </c>
@@ -13528,19 +12650,13 @@
         <v>44836.172673611109</v>
       </c>
       <c r="I88" t="s">
-        <v>507</v>
-      </c>
-      <c r="L88">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M88">
-        <v>46.7224</v>
+        <v>439</v>
       </c>
       <c r="N88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P88" t="s">
         <v>156</v>
@@ -13555,7 +12671,7 @@
         <v>3</v>
       </c>
       <c r="T88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V88" t="s">
         <v>160</v>
@@ -13564,19 +12680,19 @@
         <v>3</v>
       </c>
       <c r="X88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y88">
         <v>1</v>
       </c>
       <c r="Z88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE88" t="s">
         <v>164</v>
@@ -13585,13 +12701,13 @@
         <v>164</v>
       </c>
       <c r="AG88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AI88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AJ88" t="s">
         <v>164</v>
@@ -13627,10 +12743,10 @@
         <v>164</v>
       </c>
       <c r="AU88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW88" t="s">
         <v>173</v>
@@ -13639,10 +12755,10 @@
         <v>174</v>
       </c>
       <c r="AY88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.2">
@@ -13655,9 +12771,6 @@
       <c r="C89" t="s">
         <v>55</v>
       </c>
-      <c r="D89" t="s">
-        <v>506</v>
-      </c>
       <c r="E89">
         <v>100</v>
       </c>
@@ -13671,19 +12784,13 @@
         <v>44836.184363425928</v>
       </c>
       <c r="I89" t="s">
-        <v>508</v>
-      </c>
-      <c r="L89">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M89">
-        <v>46.7224</v>
+        <v>440</v>
       </c>
       <c r="N89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P89" t="s">
         <v>156</v>
@@ -13710,16 +12817,16 @@
         <v>5</v>
       </c>
       <c r="X89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y89">
         <v>2</v>
       </c>
       <c r="Z89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA89" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB89">
         <v>7</v>
@@ -13737,7 +12844,7 @@
         <v>164</v>
       </c>
       <c r="AG89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH89" t="s">
         <v>170</v>
@@ -13749,7 +12856,7 @@
         <v>165</v>
       </c>
       <c r="AK89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL89" t="s">
         <v>168</v>
@@ -13761,13 +12868,13 @@
         <v>164</v>
       </c>
       <c r="AO89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP89" t="s">
         <v>170</v>
       </c>
       <c r="AQ89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR89" t="s">
         <v>171</v>
@@ -13782,19 +12889,19 @@
         <v>164</v>
       </c>
       <c r="AV89" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AX89" t="s">
         <v>174</v>
       </c>
       <c r="AY89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.2">
@@ -13807,9 +12914,6 @@
       <c r="C90" t="s">
         <v>55</v>
       </c>
-      <c r="D90" t="s">
-        <v>506</v>
-      </c>
       <c r="E90">
         <v>100</v>
       </c>
@@ -13823,19 +12927,13 @@
         <v>44836.197152777779</v>
       </c>
       <c r="I90" t="s">
-        <v>509</v>
-      </c>
-      <c r="L90">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M90">
-        <v>46.7224</v>
+        <v>441</v>
       </c>
       <c r="N90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P90" t="s">
         <v>156</v>
@@ -13862,16 +12960,16 @@
         <v>15</v>
       </c>
       <c r="X90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y90">
         <v>12</v>
       </c>
       <c r="Z90" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA90" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB90">
         <v>4</v>
@@ -13898,10 +12996,10 @@
         <v>170</v>
       </c>
       <c r="AJ90" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL90" t="s">
         <v>170</v>
@@ -13934,19 +13032,19 @@
         <v>164</v>
       </c>
       <c r="AV90" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW90" t="s">
         <v>173</v>
       </c>
       <c r="AX90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.2">
@@ -13959,9 +13057,6 @@
       <c r="C91" t="s">
         <v>55</v>
       </c>
-      <c r="D91" t="s">
-        <v>510</v>
-      </c>
       <c r="E91">
         <v>100</v>
       </c>
@@ -13975,25 +13070,19 @@
         <v>44836.212592592594</v>
       </c>
       <c r="I91" t="s">
-        <v>511</v>
-      </c>
-      <c r="L91">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M91">
-        <v>46.7224</v>
+        <v>442</v>
       </c>
       <c r="N91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P91" t="s">
         <v>156</v>
       </c>
       <c r="Q91" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R91" t="s">
         <v>158</v>
@@ -14002,7 +13091,7 @@
         <v>20</v>
       </c>
       <c r="T91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V91" t="s">
         <v>160</v>
@@ -14011,16 +13100,16 @@
         <v>30</v>
       </c>
       <c r="X91" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y91">
         <v>40</v>
       </c>
       <c r="Z91" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA91" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB91">
         <v>4</v>
@@ -14029,7 +13118,7 @@
         <v>165</v>
       </c>
       <c r="AD91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE91" t="s">
         <v>165</v>
@@ -14056,19 +13145,19 @@
         <v>170</v>
       </c>
       <c r="AM91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP91" t="s">
         <v>170</v>
       </c>
       <c r="AQ91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR91" t="s">
         <v>171</v>
@@ -14083,16 +13172,16 @@
         <v>164</v>
       </c>
       <c r="AV91" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AW91" t="s">
         <v>173</v>
       </c>
       <c r="AX91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AY91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ91" t="s">
         <v>176</v>
@@ -14108,9 +13197,6 @@
       <c r="C92" t="s">
         <v>55</v>
       </c>
-      <c r="D92" t="s">
-        <v>512</v>
-      </c>
       <c r="E92">
         <v>100</v>
       </c>
@@ -14124,19 +13210,13 @@
         <v>44837.730231481481</v>
       </c>
       <c r="I92" t="s">
-        <v>513</v>
-      </c>
-      <c r="L92">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M92">
-        <v>46.7224</v>
+        <v>443</v>
       </c>
       <c r="N92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P92" t="s">
         <v>156</v>
@@ -14163,22 +13243,22 @@
         <v>17</v>
       </c>
       <c r="X92" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y92">
         <v>6</v>
       </c>
       <c r="Z92" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA92" t="s">
         <v>191</v>
       </c>
-      <c r="AA92" t="s">
-        <v>192</v>
-      </c>
       <c r="AC92" t="s">
         <v>164</v>
       </c>
       <c r="AD92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE92" t="s">
         <v>163</v>
@@ -14187,7 +13267,7 @@
         <v>169</v>
       </c>
       <c r="AG92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AH92" t="s">
         <v>170</v>
@@ -14232,19 +13312,19 @@
         <v>164</v>
       </c>
       <c r="AV92" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW92" t="s">
         <v>173</v>
       </c>
       <c r="AX92" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AY92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.2">
@@ -14257,9 +13337,6 @@
       <c r="C93" t="s">
         <v>55</v>
       </c>
-      <c r="D93" t="s">
-        <v>512</v>
-      </c>
       <c r="E93">
         <v>100</v>
       </c>
@@ -14273,19 +13350,13 @@
         <v>44837.742245370369</v>
       </c>
       <c r="I93" t="s">
-        <v>514</v>
-      </c>
-      <c r="L93">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M93">
-        <v>46.7224</v>
+        <v>444</v>
       </c>
       <c r="N93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P93" t="s">
         <v>156</v>
@@ -14312,16 +13383,16 @@
         <v>16</v>
       </c>
       <c r="X93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y93">
         <v>25</v>
       </c>
       <c r="Z93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA93" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB93">
         <v>1</v>
@@ -14336,7 +13407,7 @@
         <v>164</v>
       </c>
       <c r="AF93" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG93" t="s">
         <v>170</v>
@@ -14348,7 +13419,7 @@
         <v>167</v>
       </c>
       <c r="AJ93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK93" t="s">
         <v>170</v>
@@ -14357,7 +13428,7 @@
         <v>170</v>
       </c>
       <c r="AM93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AN93" t="s">
         <v>169</v>
@@ -14384,7 +13455,7 @@
         <v>172</v>
       </c>
       <c r="AV93" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW93" t="s">
         <v>173</v>
@@ -14393,10 +13464,10 @@
         <v>174</v>
       </c>
       <c r="AY93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ93" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.2">
@@ -14409,9 +13480,6 @@
       <c r="C94" t="s">
         <v>55</v>
       </c>
-      <c r="D94" t="s">
-        <v>512</v>
-      </c>
       <c r="E94">
         <v>100</v>
       </c>
@@ -14425,19 +13493,13 @@
         <v>44837.753101851849</v>
       </c>
       <c r="I94" t="s">
-        <v>515</v>
-      </c>
-      <c r="L94">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M94">
-        <v>46.7224</v>
+        <v>445</v>
       </c>
       <c r="N94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P94" t="s">
         <v>156</v>
@@ -14452,7 +13514,7 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V94" t="s">
         <v>160</v>
@@ -14461,22 +13523,22 @@
         <v>5</v>
       </c>
       <c r="X94" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y94">
         <v>6</v>
       </c>
       <c r="Z94" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC94" t="s">
         <v>164</v>
       </c>
       <c r="AD94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AE94" t="s">
         <v>165</v>
@@ -14494,10 +13556,10 @@
         <v>170</v>
       </c>
       <c r="AJ94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL94" t="s">
         <v>170</v>
@@ -14509,7 +13571,7 @@
         <v>169</v>
       </c>
       <c r="AO94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP94" t="s">
         <v>170</v>
@@ -14530,7 +13592,7 @@
         <v>164</v>
       </c>
       <c r="AV94" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AW94" t="s">
         <v>173</v>
@@ -14539,10 +13601,10 @@
         <v>174</v>
       </c>
       <c r="AY94" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ94" t="s">
         <v>194</v>
-      </c>
-      <c r="AZ94" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.2">
@@ -14555,9 +13617,6 @@
       <c r="C95" t="s">
         <v>55</v>
       </c>
-      <c r="D95" t="s">
-        <v>516</v>
-      </c>
       <c r="E95">
         <v>100</v>
       </c>
@@ -14571,19 +13630,13 @@
         <v>44838.133576388886</v>
       </c>
       <c r="I95" t="s">
-        <v>517</v>
-      </c>
-      <c r="L95">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M95">
-        <v>46.7224</v>
+        <v>446</v>
       </c>
       <c r="N95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P95" t="s">
         <v>156</v>
@@ -14610,16 +13663,16 @@
         <v>2</v>
       </c>
       <c r="X95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y95">
         <v>1</v>
       </c>
       <c r="Z95" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AA95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC95" t="s">
         <v>172</v>
@@ -14631,7 +13684,7 @@
         <v>164</v>
       </c>
       <c r="AF95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG95" t="s">
         <v>167</v>
@@ -14646,7 +13699,7 @@
         <v>164</v>
       </c>
       <c r="AK95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL95" t="s">
         <v>170</v>
@@ -14658,13 +13711,13 @@
         <v>164</v>
       </c>
       <c r="AO95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AP95" t="s">
         <v>170</v>
       </c>
       <c r="AQ95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AR95" t="s">
         <v>171</v>
@@ -14676,22 +13729,22 @@
         <v>164</v>
       </c>
       <c r="AU95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV95" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW95" t="s">
         <v>173</v>
       </c>
       <c r="AX95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ95" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.2">
@@ -14704,9 +13757,6 @@
       <c r="C96" t="s">
         <v>55</v>
       </c>
-      <c r="D96" t="s">
-        <v>516</v>
-      </c>
       <c r="E96">
         <v>100</v>
       </c>
@@ -14720,25 +13770,19 @@
         <v>44838.152754629627</v>
       </c>
       <c r="I96" t="s">
-        <v>518</v>
-      </c>
-      <c r="L96">
-        <v>24.686900000000001</v>
-      </c>
-      <c r="M96">
-        <v>46.7224</v>
+        <v>447</v>
       </c>
       <c r="N96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P96" t="s">
         <v>156</v>
       </c>
       <c r="Q96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R96" t="s">
         <v>158</v>
@@ -14747,7 +13791,7 @@
         <v>7</v>
       </c>
       <c r="T96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V96" t="s">
         <v>160</v>
@@ -14756,13 +13800,13 @@
         <v>5</v>
       </c>
       <c r="X96" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Y96">
         <v>7</v>
       </c>
       <c r="Z96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC96" t="s">
         <v>163</v>
@@ -14819,22 +13863,22 @@
         <v>164</v>
       </c>
       <c r="AU96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV96" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AW96" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX96" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY96" t="s">
         <v>193</v>
       </c>
-      <c r="AX96" t="s">
-        <v>308</v>
-      </c>
-      <c r="AY96" t="s">
-        <v>194</v>
-      </c>
       <c r="AZ96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
